--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -28,24 +28,27 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Ethanol production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Electricity production [kWhr/ton]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [cf/ton]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
+    <t>Biodiesel production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Ethanol production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Electricity production [MMWhr/yr]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [MMcf/yr]</t>
+  </si>
+  <si>
+    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
+    <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -64,21 +67,18 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Fermentation</t>
+    <t>Lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Additional lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
-  </si>
-  <si>
-    <t>Efficiency [%]</t>
-  </si>
-  <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +468,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,294 +495,301 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.2817871617871618</v>
+        <v>0.1658611200104448</v>
       </c>
       <c r="D4">
-        <v>-0.005481545481545482</v>
+        <v>0.9733825468393017</v>
       </c>
       <c r="E4">
-        <v>0.02254605454605455</v>
+        <v>-0.7212655740986228</v>
       </c>
       <c r="G4">
-        <v>-0.04895978495978497</v>
+        <v>-0.9184897430115897</v>
       </c>
       <c r="H4">
-        <v>0.04852335652335652</v>
+        <v>0.602918774996751</v>
       </c>
       <c r="I4">
-        <v>0.996870732870733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.3732095689443827</v>
+      </c>
+      <c r="J4">
+        <v>0.9014468351389151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.09790621390621392</v>
+        <v>-0.01411508350860334</v>
       </c>
       <c r="D5">
-        <v>0.9953676593676594</v>
+        <v>0.0004000971040038841</v>
       </c>
       <c r="E5">
-        <v>-0.9982261102261103</v>
+        <v>0.005559831486393258</v>
       </c>
       <c r="G5">
-        <v>-0.4735819735819736</v>
+        <v>0.004705683068227322</v>
       </c>
       <c r="H5">
-        <v>0.692955812955813</v>
+        <v>0.001994577967783118</v>
       </c>
       <c r="I5">
-        <v>0.02925276525276525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.01588562732342509</v>
+      </c>
+      <c r="J5">
+        <v>0.008272100160839917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.007047439047439048</v>
+        <v>0.03614085053363401</v>
       </c>
       <c r="D6">
-        <v>0.09006778206778207</v>
+        <v>0.04808889619555584</v>
       </c>
       <c r="E6">
-        <v>0.002312546312546313</v>
+        <v>-0.001931757965270318</v>
       </c>
       <c r="G6">
-        <v>0.003161775161775162</v>
+        <v>0.06110126942005076</v>
       </c>
       <c r="H6">
-        <v>0.06229123429123429</v>
+        <v>0.02138527314341092</v>
       </c>
       <c r="I6">
-        <v>-0.01729109329109329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.00763494625739785</v>
+      </c>
+      <c r="J6">
+        <v>0.007510318097820153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>-0.01194182394182394</v>
+        <v>0.06348927700357107</v>
       </c>
       <c r="D7">
-        <v>-0.03027066627066627</v>
+        <v>0.1721327142453085</v>
       </c>
       <c r="E7">
-        <v>0.03227618027618028</v>
+        <v>0.590688427115537</v>
       </c>
       <c r="G7">
-        <v>0.05962828762828763</v>
+        <v>-0.09170847304433892</v>
       </c>
       <c r="H7">
-        <v>-0.05697722097722099</v>
+        <v>0.7251539994381598</v>
       </c>
       <c r="I7">
-        <v>-0.02228786228786229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.9180065682722626</v>
+      </c>
+      <c r="J7">
+        <v>0.1337494881822791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.9180095220095221</v>
+        <v>0.8685559647262385</v>
       </c>
       <c r="D8">
-        <v>0.02176785376785377</v>
+        <v>0.001014418696576748</v>
       </c>
       <c r="E8">
-        <v>-0.02234141834141834</v>
+        <v>-0.02040274372810975</v>
       </c>
       <c r="G8">
-        <v>0.03827078627078627</v>
+        <v>-0.01047229827489193</v>
       </c>
       <c r="H8">
-        <v>-0.02347065547065547</v>
+        <v>-0.01731496437259857</v>
       </c>
       <c r="I8">
-        <v>0.0365991125991126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.02228540172341607</v>
+      </c>
+      <c r="J8">
+        <v>0.002244673915403122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.1496594696594697</v>
+        <v>0.3416706202908247</v>
       </c>
       <c r="D9">
-        <v>-0.02874132474132474</v>
+        <v>-0.008452412402096494</v>
       </c>
       <c r="E9">
-        <v>0.03257714057714058</v>
+        <v>0.01527623619504945</v>
       </c>
       <c r="G9">
-        <v>0.0340984900984901</v>
+        <v>0.007024691320987652</v>
       </c>
       <c r="H9">
-        <v>-0.02206419406419407</v>
+        <v>-0.0005438813977552558</v>
       </c>
       <c r="I9">
-        <v>-0.00822082422082422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.001537049725481989</v>
+      </c>
+      <c r="J9">
+        <v>-0.009210217287040046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.01695952095952096</v>
+        <v>-0.01155059422202377</v>
       </c>
       <c r="D10">
-        <v>-0.00848976848976849</v>
+        <v>0.005570246142809846</v>
       </c>
       <c r="E10">
-        <v>0.01132574332574333</v>
+        <v>-0.01293324714132988</v>
       </c>
       <c r="G10">
-        <v>-0.03155789555789556</v>
+        <v>-0.003876004187040167</v>
       </c>
       <c r="H10">
-        <v>0.02955116955116955</v>
+        <v>-0.007233990145359605</v>
       </c>
       <c r="I10">
-        <v>-0.01669241269241269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.01551305332452213</v>
+      </c>
+      <c r="J10">
+        <v>-0.004148899656943194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.03200156000156001</v>
+        <v>-0.0351942574717703</v>
       </c>
       <c r="D11">
-        <v>-0.01646693246693247</v>
+        <v>0.0002141707285668291</v>
       </c>
       <c r="E11">
-        <v>0.02008013608013608</v>
+        <v>-0.001921635052865402</v>
       </c>
       <c r="G11">
-        <v>-0.01951479151479152</v>
+        <v>-0.004669060410762415</v>
       </c>
       <c r="H11">
-        <v>0.03388428988428988</v>
+        <v>0.0002172382166895286</v>
       </c>
       <c r="I11">
-        <v>-0.002107838107838108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.002133324469332979</v>
+      </c>
+      <c r="J11">
+        <v>0.01040699221577272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.03708532908532909</v>
+        <v>0.07515940188637606</v>
       </c>
       <c r="D12">
-        <v>0.01906979506979507</v>
+        <v>0.1328847445793898</v>
       </c>
       <c r="E12">
-        <v>-0.01433139833139833</v>
+        <v>0.3185829069833163</v>
       </c>
       <c r="G12">
-        <v>-0.3063525423525424</v>
+        <v>0.3008992100519684</v>
       </c>
       <c r="H12">
-        <v>0.01264959664959665</v>
+        <v>0.2857594985343799</v>
       </c>
       <c r="I12">
-        <v>0.01703876903876904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01033387106935484</v>
+      </c>
+      <c r="J12">
+        <v>0.01839647028510427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2190863310863311</v>
+        <v>-0.2005557121502285</v>
       </c>
       <c r="D13">
-        <v>-0.0191043791043791</v>
+        <v>0.01061492375259695</v>
       </c>
       <c r="E13">
-        <v>0.01444554244554245</v>
+        <v>-0.011847100025884</v>
       </c>
       <c r="G13">
-        <v>0.009924549924549926</v>
+        <v>-0.01678588953543558</v>
       </c>
       <c r="H13">
-        <v>-0.01034147834147834</v>
+        <v>-0.00079966150398646</v>
       </c>
       <c r="I13">
-        <v>-0.0335955215955216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0.02197656997656998</v>
-      </c>
-      <c r="D14">
-        <v>-0.02392660792660793</v>
-      </c>
-      <c r="E14">
-        <v>0.02905260505260505</v>
-      </c>
-      <c r="G14">
-        <v>-0.7950275670275672</v>
-      </c>
-      <c r="H14">
-        <v>0.6783417663417664</v>
-      </c>
-      <c r="I14">
-        <v>-0.02887985287985288</v>
+        <v>0.005197712367908494</v>
+      </c>
+      <c r="J13">
+        <v>0.01099230039960647</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -73,7 +73,7 @@
     <t>Lipid retention [%]</t>
   </si>
   <si>
-    <t>Additional lipid extraction efficiency [%]</t>
+    <t>Bagasse lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
@@ -515,25 +515,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.1658611200104448</v>
+        <v>0.1784339608490212</v>
       </c>
       <c r="D4">
-        <v>0.9733825468393017</v>
+        <v>0.9600480012000301</v>
       </c>
       <c r="E4">
-        <v>-0.7212655740986228</v>
+        <v>-0.7825365634140854</v>
       </c>
       <c r="G4">
-        <v>-0.9184897430115897</v>
+        <v>-0.0637890947273682</v>
       </c>
       <c r="H4">
-        <v>0.602918774996751</v>
+        <v>0.4810620265506638</v>
       </c>
       <c r="I4">
-        <v>0.3732095689443827</v>
+        <v>0.4464906622665568</v>
       </c>
       <c r="J4">
-        <v>0.9014468351389151</v>
+        <v>0.8229850746268658</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +542,25 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.01411508350860334</v>
+        <v>0.03470186754668867</v>
       </c>
       <c r="D5">
-        <v>0.0004000971040038841</v>
+        <v>0.09336233405835148</v>
       </c>
       <c r="E5">
-        <v>0.005559831486393258</v>
+        <v>0.02301957548938724</v>
       </c>
       <c r="G5">
-        <v>0.004705683068227322</v>
+        <v>0.08865071626790672</v>
       </c>
       <c r="H5">
-        <v>0.001994577967783118</v>
+        <v>0.1521833045826146</v>
       </c>
       <c r="I5">
-        <v>0.01588562732342509</v>
+        <v>0.134766369159229</v>
       </c>
       <c r="J5">
-        <v>0.008272100160839917</v>
+        <v>0.235223880597015</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +569,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.03614085053363401</v>
+        <v>0.07646441161029026</v>
       </c>
       <c r="D6">
-        <v>0.04808889619555584</v>
+        <v>0.1813830345758644</v>
       </c>
       <c r="E6">
-        <v>-0.001931757965270318</v>
+        <v>-0.02597464936623416</v>
       </c>
       <c r="G6">
-        <v>0.06110126942005076</v>
+        <v>0.2306832670816771</v>
       </c>
       <c r="H6">
-        <v>0.02138527314341092</v>
+        <v>0.1552118802970074</v>
       </c>
       <c r="I6">
-        <v>0.00763494625739785</v>
+        <v>0.00109652741318533</v>
       </c>
       <c r="J6">
-        <v>0.007510318097820153</v>
+        <v>0.04899872496812421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.06348927700357107</v>
+        <v>0.08621015525388136</v>
       </c>
       <c r="D7">
-        <v>0.1721327142453085</v>
+        <v>0.08721218030450763</v>
       </c>
       <c r="E7">
-        <v>0.590688427115537</v>
+        <v>0.5809555238880973</v>
       </c>
       <c r="G7">
-        <v>-0.09170847304433892</v>
+        <v>0.4767209180229506</v>
       </c>
       <c r="H7">
-        <v>0.7251539994381598</v>
+        <v>0.7291217280432011</v>
       </c>
       <c r="I7">
-        <v>0.9180065682722626</v>
+        <v>0.8388689717242932</v>
       </c>
       <c r="J7">
-        <v>0.1337494881822791</v>
+        <v>-0.04908272706817671</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -625,25 +625,25 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.8685559647262385</v>
+        <v>0.83875196879922</v>
       </c>
       <c r="D8">
-        <v>0.001014418696576748</v>
+        <v>0.04760519012975326</v>
       </c>
       <c r="E8">
-        <v>-0.02040274372810975</v>
+        <v>0.001354533863346584</v>
       </c>
       <c r="G8">
-        <v>-0.01047229827489193</v>
+        <v>0.01775144378609466</v>
       </c>
       <c r="H8">
-        <v>-0.01731496437259857</v>
+        <v>0.07909097727443187</v>
       </c>
       <c r="I8">
-        <v>-0.02228540172341607</v>
+        <v>0.06434410860271507</v>
       </c>
       <c r="J8">
-        <v>0.002244673915403122</v>
+        <v>0.002715067876696918</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -654,25 +654,25 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.3416706202908247</v>
+        <v>0.3864666616665418</v>
       </c>
       <c r="D9">
-        <v>-0.008452412402096494</v>
+        <v>-0.09345383634590865</v>
       </c>
       <c r="E9">
-        <v>0.01527623619504945</v>
+        <v>0.03792994824870622</v>
       </c>
       <c r="G9">
-        <v>0.007024691320987652</v>
+        <v>-0.0276231905797645</v>
       </c>
       <c r="H9">
-        <v>-0.0005438813977552558</v>
+        <v>-0.05684392109802745</v>
       </c>
       <c r="I9">
-        <v>0.001537049725481989</v>
+        <v>-0.02090002250056252</v>
       </c>
       <c r="J9">
-        <v>-0.009210217287040046</v>
+        <v>-0.06146103652591316</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -683,25 +683,25 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.01155059422202377</v>
+        <v>0.03397434935873397</v>
       </c>
       <c r="D10">
-        <v>0.005570246142809846</v>
+        <v>0.01882547063676592</v>
       </c>
       <c r="E10">
-        <v>-0.01293324714132988</v>
+        <v>-0.04248856221405535</v>
       </c>
       <c r="G10">
-        <v>-0.003876004187040167</v>
+        <v>-0.0007560189004725118</v>
       </c>
       <c r="H10">
-        <v>-0.007233990145359605</v>
+        <v>-0.01366834170854272</v>
       </c>
       <c r="I10">
-        <v>-0.01551305332452213</v>
+        <v>-0.01665941648541214</v>
       </c>
       <c r="J10">
-        <v>-0.004148899656943194</v>
+        <v>-0.005782644566114154</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -712,25 +712,25 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.0351942574717703</v>
+        <v>-0.02046651166279157</v>
       </c>
       <c r="D11">
-        <v>0.0002141707285668291</v>
+        <v>0.08528163204080103</v>
       </c>
       <c r="E11">
-        <v>-0.001921635052865402</v>
+        <v>0.03320183004575115</v>
       </c>
       <c r="G11">
-        <v>-0.004669060410762415</v>
+        <v>0.08012300307507689</v>
       </c>
       <c r="H11">
-        <v>0.0002172382166895286</v>
+        <v>0.121752043801095</v>
       </c>
       <c r="I11">
-        <v>0.002133324469332979</v>
+        <v>0.1309082727068177</v>
       </c>
       <c r="J11">
-        <v>0.01040699221577272</v>
+        <v>0.01550588764719118</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -739,25 +739,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.07515940188637606</v>
+        <v>0.04957923948098703</v>
       </c>
       <c r="D12">
-        <v>0.1328847445793898</v>
+        <v>0.07516387909697743</v>
       </c>
       <c r="E12">
-        <v>0.3185829069833163</v>
+        <v>0.2638640966024151</v>
       </c>
       <c r="G12">
-        <v>0.3008992100519684</v>
+        <v>0.7377919447986201</v>
       </c>
       <c r="H12">
-        <v>0.2857594985343799</v>
+        <v>0.2309127728193205</v>
       </c>
       <c r="I12">
-        <v>0.01033387106935484</v>
+        <v>-0.0852126303157579</v>
       </c>
       <c r="J12">
-        <v>0.01839647028510427</v>
+        <v>0.02504462611565289</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,25 +766,25 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2005557121502285</v>
+        <v>-0.1789529738243456</v>
       </c>
       <c r="D13">
-        <v>0.01061492375259695</v>
+        <v>0.006000150003750095</v>
       </c>
       <c r="E13">
-        <v>-0.011847100025884</v>
+        <v>-0.01036375909397735</v>
       </c>
       <c r="G13">
-        <v>-0.01678588953543558</v>
+        <v>-0.02665866646666167</v>
       </c>
       <c r="H13">
-        <v>-0.00079966150398646</v>
+        <v>0.03860496512412811</v>
       </c>
       <c r="I13">
-        <v>0.005197712367908494</v>
+        <v>0.05545338633465837</v>
       </c>
       <c r="J13">
-        <v>0.01099230039960647</v>
+        <v>0.005034125853146328</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
+  </si>
+  <si>
+    <t>Feedstock consumption [ton/yr]</t>
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,298 +502,331 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.1784339608490212</v>
+        <v>0.2825275631890798</v>
       </c>
       <c r="D4">
-        <v>0.9600480012000301</v>
+        <v>0.9586439660991526</v>
       </c>
       <c r="E4">
-        <v>-0.7825365634140854</v>
+        <v>-0.7866451661291534</v>
       </c>
       <c r="G4">
-        <v>-0.0637890947273682</v>
+        <v>-0.3830765769144229</v>
       </c>
       <c r="H4">
-        <v>0.4810620265506638</v>
+        <v>0.5490497262431562</v>
       </c>
       <c r="I4">
-        <v>0.4464906622665568</v>
+        <v>0.3512847821195531</v>
       </c>
       <c r="J4">
-        <v>0.8229850746268658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.07455936398409961</v>
+      </c>
+      <c r="K4">
+        <v>-0.252172804320108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.03470186754668867</v>
+        <v>0.02469961749043727</v>
       </c>
       <c r="D5">
-        <v>0.09336233405835148</v>
+        <v>0.09077476936923425</v>
       </c>
       <c r="E5">
-        <v>0.02301957548938724</v>
+        <v>0.02245256131403285</v>
       </c>
       <c r="G5">
-        <v>0.08865071626790672</v>
+        <v>0.007884197104927625</v>
       </c>
       <c r="H5">
-        <v>0.1521833045826146</v>
+        <v>0.1661666541663542</v>
       </c>
       <c r="I5">
-        <v>0.134766369159229</v>
+        <v>0.13750393759844</v>
       </c>
       <c r="J5">
-        <v>0.235223880597015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.1357848946223656</v>
+      </c>
+      <c r="K5">
+        <v>-0.1363849096227406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.07646441161029026</v>
+        <v>0.1011790294757369</v>
       </c>
       <c r="D6">
-        <v>0.1813830345758644</v>
+        <v>0.1886012150303758</v>
       </c>
       <c r="E6">
-        <v>-0.02597464936623416</v>
+        <v>-0.0254166354158854</v>
       </c>
       <c r="G6">
-        <v>0.2306832670816771</v>
+        <v>0.5542203555088878</v>
       </c>
       <c r="H6">
-        <v>0.1552118802970074</v>
+        <v>-0.03332333308332708</v>
       </c>
       <c r="I6">
-        <v>0.00109652741318533</v>
+        <v>-0.02942173554338859</v>
       </c>
       <c r="J6">
-        <v>0.04899872496812421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.06317257931448288</v>
+      </c>
+      <c r="K6">
+        <v>-0.07991449786244657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.08621015525388136</v>
+        <v>0.07266481662041552</v>
       </c>
       <c r="D7">
-        <v>0.08721218030450763</v>
+        <v>0.08541513537838447</v>
       </c>
       <c r="E7">
-        <v>0.5809555238880973</v>
+        <v>0.5765364134103353</v>
       </c>
       <c r="G7">
-        <v>0.4767209180229506</v>
+        <v>0.3828515712892822</v>
       </c>
       <c r="H7">
-        <v>0.7291217280432011</v>
+        <v>0.7021705542638568</v>
       </c>
       <c r="I7">
-        <v>0.8388689717242932</v>
+        <v>0.8934523363084078</v>
       </c>
       <c r="J7">
-        <v>-0.04908272706817671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.8632430810770271</v>
+      </c>
+      <c r="K7">
+        <v>0.3285187129678242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.83875196879922</v>
+        <v>0.802236555913898</v>
       </c>
       <c r="D8">
-        <v>0.04760519012975326</v>
+        <v>0.04826070651766294</v>
       </c>
       <c r="E8">
-        <v>0.001354533863346584</v>
+        <v>0.0003645091127278182</v>
       </c>
       <c r="G8">
-        <v>0.01775144378609466</v>
+        <v>-0.011716792919823</v>
       </c>
       <c r="H8">
-        <v>0.07909097727443187</v>
+        <v>0.07834995874896875</v>
       </c>
       <c r="I8">
-        <v>0.06434410860271507</v>
+        <v>0.06283957098927474</v>
       </c>
       <c r="J8">
-        <v>0.002715067876696918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.04300307507687693</v>
+      </c>
+      <c r="K8">
+        <v>-0.07271731793294833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.3864666616665418</v>
+        <v>0.3791644791119778</v>
       </c>
       <c r="D9">
-        <v>-0.09345383634590865</v>
+        <v>-0.09179029475736895</v>
       </c>
       <c r="E9">
-        <v>0.03792994824870622</v>
+        <v>0.0381969549238731</v>
       </c>
       <c r="G9">
-        <v>-0.0276231905797645</v>
+        <v>0.003286582164554114</v>
       </c>
       <c r="H9">
-        <v>-0.05684392109802745</v>
+        <v>-0.05133128328208206</v>
       </c>
       <c r="I9">
-        <v>-0.02090002250056252</v>
+        <v>-0.003903097577439436</v>
       </c>
       <c r="J9">
-        <v>-0.06146103652591316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-0.005701642541063528</v>
+      </c>
+      <c r="K9">
+        <v>0.01346583664591615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.03397434935873397</v>
+        <v>0.02707267681692043</v>
       </c>
       <c r="D10">
-        <v>0.01882547063676592</v>
+        <v>0.01770794269856747</v>
       </c>
       <c r="E10">
-        <v>-0.04248856221405535</v>
+        <v>-0.04158853971349284</v>
       </c>
       <c r="G10">
-        <v>-0.0007560189004725118</v>
+        <v>-0.05002775069376735</v>
       </c>
       <c r="H10">
-        <v>-0.01366834170854272</v>
+        <v>0.00172654316357909</v>
       </c>
       <c r="I10">
-        <v>-0.01665941648541214</v>
+        <v>-0.02691667291682293</v>
       </c>
       <c r="J10">
-        <v>-0.005782644566114154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-0.01775744393609841</v>
+      </c>
+      <c r="K10">
+        <v>0.0716327908197705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>-0.02046651166279157</v>
+        <v>-0.00666316657916448</v>
       </c>
       <c r="D11">
-        <v>0.08528163204080103</v>
+        <v>0.08472511812795321</v>
       </c>
       <c r="E11">
-        <v>0.03320183004575115</v>
+        <v>0.03169729243231081</v>
       </c>
       <c r="G11">
-        <v>0.08012300307507689</v>
+        <v>0.05180529513237832</v>
       </c>
       <c r="H11">
-        <v>0.121752043801095</v>
+        <v>0.1112832820820521</v>
       </c>
       <c r="I11">
-        <v>0.1309082727068177</v>
+        <v>0.1310837770944274</v>
       </c>
       <c r="J11">
-        <v>0.01550588764719118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.1039225980649516</v>
+      </c>
+      <c r="K11">
+        <v>0.02524113102827571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.04957923948098703</v>
+        <v>0.04452861321533038</v>
       </c>
       <c r="D12">
-        <v>0.07516387909697743</v>
+        <v>0.07727293182329559</v>
       </c>
       <c r="E12">
-        <v>0.2638640966024151</v>
+        <v>0.2624705617640442</v>
       </c>
       <c r="G12">
-        <v>0.7377919447986201</v>
+        <v>0.5191224780619517</v>
       </c>
       <c r="H12">
-        <v>0.2309127728193205</v>
+        <v>0.224537613440336</v>
       </c>
       <c r="I12">
-        <v>-0.0852126303157579</v>
+        <v>-0.08857871446786171</v>
       </c>
       <c r="J12">
-        <v>0.02504462611565289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.401225530638266</v>
+      </c>
+      <c r="K12">
+        <v>0.1231050776269407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>-0.1789529738243456</v>
+        <v>-0.1908212705317633</v>
       </c>
       <c r="D13">
-        <v>0.006000150003750095</v>
+        <v>0.004089102227555689</v>
       </c>
       <c r="E13">
-        <v>-0.01036375909397735</v>
+        <v>-0.01011175279381985</v>
       </c>
       <c r="G13">
-        <v>-0.02665866646666167</v>
+        <v>-0.0229940748518713</v>
       </c>
       <c r="H13">
-        <v>0.03860496512412811</v>
+        <v>0.04297307432685817</v>
       </c>
       <c r="I13">
-        <v>0.05545338633465837</v>
+        <v>0.06355058876471913</v>
       </c>
       <c r="J13">
-        <v>0.005034125853146328</v>
+        <v>0.01811745293632341</v>
+      </c>
+      <c r="K13">
+        <v>-0.08416260406510165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,331 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.2825275631890798</v>
+        <v>0.2198424960624016</v>
       </c>
       <c r="D4">
-        <v>0.9586439660991526</v>
+        <v>0.9640921023025577</v>
       </c>
       <c r="E4">
-        <v>-0.7866451661291534</v>
+        <v>-0.7865011625290633</v>
       </c>
       <c r="G4">
-        <v>-0.3830765769144229</v>
+        <v>-0.5584594614865372</v>
       </c>
       <c r="H4">
-        <v>0.5490497262431562</v>
+        <v>0.3132393309832746</v>
       </c>
       <c r="I4">
-        <v>0.3512847821195531</v>
+        <v>-0.07455936398409961</v>
       </c>
       <c r="J4">
-        <v>-0.07455936398409961</v>
-      </c>
-      <c r="K4">
-        <v>-0.252172804320108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.498535963399085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.02469961749043727</v>
+        <v>0.02021300532513313</v>
       </c>
       <c r="D5">
-        <v>0.09077476936923425</v>
+        <v>0.08751968799219981</v>
       </c>
       <c r="E5">
-        <v>0.02245256131403285</v>
+        <v>0.02232055801395036</v>
       </c>
       <c r="G5">
-        <v>0.007884197104927625</v>
+        <v>-0.000349508737718443</v>
       </c>
       <c r="H5">
-        <v>0.1661666541663542</v>
+        <v>0.1371079276981925</v>
       </c>
       <c r="I5">
-        <v>0.13750393759844</v>
+        <v>0.1357848946223656</v>
       </c>
       <c r="J5">
-        <v>0.1357848946223656</v>
-      </c>
-      <c r="K5">
-        <v>-0.1363849096227406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.05578939473486837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.1011790294757369</v>
+        <v>0.06511512787819697</v>
       </c>
       <c r="D6">
-        <v>0.1886012150303758</v>
+        <v>0.158391959798995</v>
       </c>
       <c r="E6">
-        <v>-0.0254166354158854</v>
+        <v>-0.02544513612840321</v>
       </c>
       <c r="G6">
-        <v>0.5542203555088878</v>
+        <v>0.2969249231230781</v>
       </c>
       <c r="H6">
-        <v>-0.03332333308332708</v>
+        <v>-0.0372174304357609</v>
       </c>
       <c r="I6">
-        <v>-0.02942173554338859</v>
+        <v>-0.06317257931448288</v>
       </c>
       <c r="J6">
-        <v>-0.06317257931448288</v>
-      </c>
-      <c r="K6">
-        <v>-0.07991449786244657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.133132828320708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.07201530038250957</v>
+      </c>
+      <c r="D7">
+        <v>0.08861021525538139</v>
+      </c>
+      <c r="E7">
+        <v>0.5767194179854498</v>
+      </c>
+      <c r="G7">
+        <v>0.3809885247131179</v>
+      </c>
+      <c r="H7">
+        <v>0.9107717692942324</v>
+      </c>
+      <c r="I7">
+        <v>0.8632430810770271</v>
+      </c>
+      <c r="J7">
+        <v>0.1136743418585465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0.07266481662041552</v>
-      </c>
-      <c r="D7">
-        <v>0.08541513537838447</v>
-      </c>
-      <c r="E7">
-        <v>0.5765364134103353</v>
-      </c>
-      <c r="G7">
-        <v>0.3828515712892822</v>
-      </c>
-      <c r="H7">
-        <v>0.7021705542638568</v>
-      </c>
-      <c r="I7">
-        <v>0.8934523363084078</v>
-      </c>
-      <c r="J7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="K7">
-        <v>0.3285187129678242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.822884572114303</v>
+      </c>
+      <c r="D8">
+        <v>0.04725868146703668</v>
+      </c>
+      <c r="E8">
+        <v>0.0003570089252231307</v>
+      </c>
+      <c r="G8">
+        <v>-0.03747393684842121</v>
+      </c>
+      <c r="H8">
+        <v>0.05459836495912399</v>
+      </c>
+      <c r="I8">
+        <v>0.04300307507687693</v>
+      </c>
+      <c r="J8">
+        <v>-0.02182854571364284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.3876576914422861</v>
+      </c>
+      <c r="D9">
+        <v>-0.0936398409960249</v>
+      </c>
+      <c r="E9">
+        <v>0.0382329558238956</v>
+      </c>
+      <c r="G9">
+        <v>0.05454586364659117</v>
+      </c>
+      <c r="H9">
+        <v>-0.001864546613665342</v>
+      </c>
+      <c r="I9">
+        <v>-0.005701642541063528</v>
+      </c>
+      <c r="J9">
+        <v>-0.05152928823220581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0.802236555913898</v>
-      </c>
-      <c r="D8">
-        <v>0.04826070651766294</v>
-      </c>
-      <c r="E8">
-        <v>0.0003645091127278182</v>
-      </c>
-      <c r="G8">
-        <v>-0.011716792919823</v>
-      </c>
-      <c r="H8">
-        <v>0.07834995874896875</v>
-      </c>
-      <c r="I8">
-        <v>0.06283957098927474</v>
-      </c>
-      <c r="J8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="K8">
-        <v>-0.07271731793294833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>0.3791644791119778</v>
-      </c>
-      <c r="D9">
-        <v>-0.09179029475736895</v>
-      </c>
-      <c r="E9">
-        <v>0.0381969549238731</v>
-      </c>
-      <c r="G9">
-        <v>0.003286582164554114</v>
-      </c>
-      <c r="H9">
-        <v>-0.05133128328208206</v>
-      </c>
-      <c r="I9">
-        <v>-0.003903097577439436</v>
-      </c>
-      <c r="J9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="K9">
-        <v>0.01346583664591615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>0.03231680792019801</v>
+      </c>
+      <c r="D10">
+        <v>0.01883597089927248</v>
+      </c>
+      <c r="E10">
+        <v>-0.04167254181354534</v>
+      </c>
+      <c r="G10">
+        <v>-0.05586139653491338</v>
+      </c>
+      <c r="H10">
+        <v>-0.02501762544063602</v>
+      </c>
+      <c r="I10">
+        <v>-0.01775744393609841</v>
+      </c>
+      <c r="J10">
+        <v>0.06991674791869798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>0.02707267681692043</v>
-      </c>
-      <c r="D10">
-        <v>0.01770794269856747</v>
-      </c>
-      <c r="E10">
-        <v>-0.04158853971349284</v>
-      </c>
-      <c r="G10">
-        <v>-0.05002775069376735</v>
-      </c>
-      <c r="H10">
-        <v>0.00172654316357909</v>
-      </c>
-      <c r="I10">
-        <v>-0.02691667291682293</v>
-      </c>
-      <c r="J10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="K10">
-        <v>0.0716327908197705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>-0.00666316657916448</v>
+        <v>-0.007725193129828247</v>
       </c>
       <c r="D11">
-        <v>0.08472511812795321</v>
+        <v>0.08581414535363385</v>
       </c>
       <c r="E11">
-        <v>0.03169729243231081</v>
+        <v>0.03180979524488113</v>
       </c>
       <c r="G11">
-        <v>0.05180529513237832</v>
+        <v>0.005941648541213531</v>
       </c>
       <c r="H11">
-        <v>0.1112832820820521</v>
+        <v>0.130828770719268</v>
       </c>
       <c r="I11">
-        <v>0.1310837770944274</v>
+        <v>0.1039225980649516</v>
       </c>
       <c r="J11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="K11">
-        <v>0.02524113102827571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-0.0643531088277207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.04452861321533038</v>
+        <v>0.04806870171754295</v>
       </c>
       <c r="D12">
-        <v>0.07727293182329559</v>
+        <v>0.07340433510837772</v>
       </c>
       <c r="E12">
-        <v>0.2624705617640442</v>
+        <v>0.26249606240156</v>
       </c>
       <c r="G12">
-        <v>0.5191224780619517</v>
+        <v>0.4819845496137404</v>
       </c>
       <c r="H12">
-        <v>0.224537613440336</v>
+        <v>-0.08704567614190356</v>
       </c>
       <c r="I12">
-        <v>-0.08857871446786171</v>
+        <v>0.401225530638266</v>
       </c>
       <c r="J12">
-        <v>0.401225530638266</v>
-      </c>
-      <c r="K12">
-        <v>0.1231050776269407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.003220580514512863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1908212705317633</v>
+        <v>-0.1930173254331359</v>
       </c>
       <c r="D13">
-        <v>0.004089102227555689</v>
+        <v>0.007863196579914499</v>
       </c>
       <c r="E13">
-        <v>-0.01011175279381985</v>
+        <v>-0.01015825395634891</v>
       </c>
       <c r="G13">
-        <v>-0.0229940748518713</v>
+        <v>-0.002352058801470037</v>
       </c>
       <c r="H13">
-        <v>0.04297307432685817</v>
+        <v>0.06312907822695568</v>
       </c>
       <c r="I13">
-        <v>0.06355058876471913</v>
+        <v>0.01811745293632341</v>
       </c>
       <c r="J13">
-        <v>0.01811745293632341</v>
-      </c>
-      <c r="K13">
-        <v>-0.08416260406510165</v>
+        <v>0.03624990624765619</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -49,6 +49,24 @@
     <t>Heat exchanger network error [%]</t>
   </si>
   <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -67,7 +85,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,300 +525,510 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.2198424960624016</v>
+        <v>0.2388313668313668</v>
       </c>
       <c r="D4">
-        <v>0.9640921023025577</v>
+        <v>0.9849294249294249</v>
       </c>
       <c r="E4">
-        <v>-0.7865011625290633</v>
+        <v>-0.9973226053226053</v>
       </c>
       <c r="G4">
-        <v>-0.5584594614865372</v>
+        <v>-0.6834886674886675</v>
       </c>
       <c r="H4">
-        <v>0.3132393309832746</v>
+        <v>0.382964278964279</v>
       </c>
       <c r="I4">
-        <v>-0.07455936398409961</v>
+        <v>-0.0415929295929296</v>
       </c>
       <c r="J4">
-        <v>-0.498535963399085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.214441205727853</v>
+      </c>
+      <c r="K4">
+        <v>0.2614278694278694</v>
+      </c>
+      <c r="L4">
+        <v>-0.006664590664590665</v>
+      </c>
+      <c r="M4">
+        <v>-0.07440912240912241</v>
+      </c>
+      <c r="O4">
+        <v>-0.03497189897189898</v>
+      </c>
+      <c r="P4">
+        <v>-0.143932055932056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.02021300532513313</v>
+        <v>0.05505541905541907</v>
       </c>
       <c r="D5">
-        <v>0.08751968799219981</v>
+        <v>0.0685877725877726</v>
       </c>
       <c r="E5">
-        <v>0.02232055801395036</v>
+        <v>-0.06941031341031342</v>
       </c>
       <c r="G5">
-        <v>-0.000349508737718443</v>
+        <v>-0.06523037323037324</v>
       </c>
       <c r="H5">
-        <v>0.1371079276981925</v>
+        <v>-0.02267181467181467</v>
       </c>
       <c r="I5">
-        <v>0.1357848946223656</v>
+        <v>0.02059155259155259</v>
       </c>
       <c r="J5">
-        <v>0.05578939473486837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.08419803670322493</v>
+      </c>
+      <c r="K5">
+        <v>0.7809015009015009</v>
+      </c>
+      <c r="L5">
+        <v>0.003006831006831007</v>
+      </c>
+      <c r="M5">
+        <v>0.04257639057639058</v>
+      </c>
+      <c r="O5">
+        <v>0.0233036153036153</v>
+      </c>
+      <c r="P5">
+        <v>-0.1517299757299757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.06511512787819697</v>
+        <v>-0.01031911031911032</v>
       </c>
       <c r="D6">
-        <v>0.158391959798995</v>
+        <v>-0.01683922083922084</v>
       </c>
       <c r="E6">
-        <v>-0.02544513612840321</v>
+        <v>-0.009527481527481528</v>
       </c>
       <c r="G6">
-        <v>0.2969249231230781</v>
+        <v>-0.09641581241581242</v>
       </c>
       <c r="H6">
-        <v>-0.0372174304357609</v>
+        <v>0.0557985917985918</v>
       </c>
       <c r="I6">
-        <v>-0.06317257931448288</v>
+        <v>0.06424772824772824</v>
       </c>
       <c r="J6">
-        <v>-0.133132828320708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.01142973549831391</v>
+      </c>
+      <c r="K6">
+        <v>-0.007179979179979181</v>
+      </c>
+      <c r="L6">
+        <v>-0.1539418779418779</v>
+      </c>
+      <c r="M6">
+        <v>0.0611915771915772</v>
+      </c>
+      <c r="O6">
+        <v>-0.02280664680664681</v>
+      </c>
+      <c r="P6">
+        <v>0.0104016944016944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0.003648567648567649</v>
+      </c>
+      <c r="D7">
+        <v>0.1442786522786523</v>
+      </c>
+      <c r="E7">
+        <v>0.00406991206991207</v>
+      </c>
+      <c r="G7">
+        <v>0.4873326313326313</v>
+      </c>
+      <c r="H7">
+        <v>-0.02298883098883099</v>
+      </c>
+      <c r="I7">
+        <v>-0.04071701271701272</v>
+      </c>
+      <c r="J7">
+        <v>0.0209314230570116</v>
+      </c>
+      <c r="K7">
+        <v>0.118972822972823</v>
+      </c>
+      <c r="L7">
+        <v>0.9900167460167461</v>
+      </c>
+      <c r="M7">
+        <v>-0.01097032697032697</v>
+      </c>
+      <c r="O7">
+        <v>0.412986304986305</v>
+      </c>
+      <c r="P7">
+        <v>-0.01952164352164352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.04044054444054444</v>
+      </c>
+      <c r="D8">
+        <v>-0.02987412587412588</v>
+      </c>
+      <c r="E8">
+        <v>0.01054670254670255</v>
+      </c>
+      <c r="G8">
+        <v>-0.4883191643191644</v>
+      </c>
+      <c r="H8">
+        <v>0.9022834582834582</v>
+      </c>
+      <c r="I8">
+        <v>0.8663863223863224</v>
+      </c>
+      <c r="J8">
+        <v>-0.152895693813068</v>
+      </c>
+      <c r="K8">
+        <v>0.1579308499308499</v>
+      </c>
+      <c r="L8">
+        <v>-0.04804749604749605</v>
+      </c>
+      <c r="M8">
+        <v>0.5281199881199882</v>
+      </c>
+      <c r="O8">
+        <v>0.08596377796377797</v>
+      </c>
+      <c r="P8">
+        <v>0.1257506577506578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.8369859089859092</v>
+      </c>
+      <c r="D9">
+        <v>-0.0009812769812769812</v>
+      </c>
+      <c r="E9">
+        <v>-0.01027941427941428</v>
+      </c>
+      <c r="G9">
+        <v>-0.02157539757539758</v>
+      </c>
+      <c r="H9">
+        <v>-0.007767223767223767</v>
+      </c>
+      <c r="I9">
+        <v>-0.01252329652329653</v>
+      </c>
+      <c r="J9">
+        <v>0.006040230076471457</v>
+      </c>
+      <c r="K9">
+        <v>-0.1769056769056769</v>
+      </c>
+      <c r="L9">
+        <v>-0.0564038964038964</v>
+      </c>
+      <c r="M9">
+        <v>-0.0196959556959557</v>
+      </c>
+      <c r="O9">
+        <v>-0.02188565788565789</v>
+      </c>
+      <c r="P9">
+        <v>-0.03028227028227028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>0.07201530038250957</v>
-      </c>
-      <c r="D7">
-        <v>0.08861021525538139</v>
-      </c>
-      <c r="E7">
-        <v>0.5767194179854498</v>
-      </c>
-      <c r="G7">
-        <v>0.3809885247131179</v>
-      </c>
-      <c r="H7">
-        <v>0.9107717692942324</v>
-      </c>
-      <c r="I7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="J7">
-        <v>0.1136743418585465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.3696193776193776</v>
+      </c>
+      <c r="D10">
+        <v>0.0005792645792645792</v>
+      </c>
+      <c r="E10">
+        <v>-0.001166209166209166</v>
+      </c>
+      <c r="G10">
+        <v>-0.00875854475854476</v>
+      </c>
+      <c r="H10">
+        <v>0.02043846843846844</v>
+      </c>
+      <c r="I10">
+        <v>0.04376230376230376</v>
+      </c>
+      <c r="J10">
+        <v>0.02902188519601651</v>
+      </c>
+      <c r="K10">
+        <v>0.39003651003651</v>
+      </c>
+      <c r="L10">
+        <v>-0.004763236763236763</v>
+      </c>
+      <c r="M10">
+        <v>-0.01353993753993754</v>
+      </c>
+      <c r="O10">
+        <v>0.004950328950328951</v>
+      </c>
+      <c r="P10">
+        <v>0.002351846351846352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.822884572114303</v>
-      </c>
-      <c r="D8">
-        <v>0.04725868146703668</v>
-      </c>
-      <c r="E8">
-        <v>0.0003570089252231307</v>
-      </c>
-      <c r="G8">
-        <v>-0.03747393684842121</v>
-      </c>
-      <c r="H8">
-        <v>0.05459836495912399</v>
-      </c>
-      <c r="I8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="J8">
-        <v>-0.02182854571364284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0.3876576914422861</v>
-      </c>
-      <c r="D9">
-        <v>-0.0936398409960249</v>
-      </c>
-      <c r="E9">
-        <v>0.0382329558238956</v>
-      </c>
-      <c r="G9">
-        <v>0.05454586364659117</v>
-      </c>
-      <c r="H9">
-        <v>-0.001864546613665342</v>
-      </c>
-      <c r="I9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="J9">
-        <v>-0.05152928823220581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-0.06273551073551073</v>
+      </c>
+      <c r="D11">
+        <v>0.07594218394218394</v>
+      </c>
+      <c r="E11">
+        <v>-0.07491903891903892</v>
+      </c>
+      <c r="G11">
+        <v>-0.01761605361605362</v>
+      </c>
+      <c r="H11">
+        <v>-0.01567986367986368</v>
+      </c>
+      <c r="I11">
+        <v>-0.05291790491790493</v>
+      </c>
+      <c r="J11">
+        <v>0.02929400346976749</v>
+      </c>
+      <c r="K11">
+        <v>0.09553474753474754</v>
+      </c>
+      <c r="L11">
+        <v>-0.003973851973851974</v>
+      </c>
+      <c r="M11">
+        <v>-0.02255900255900256</v>
+      </c>
+      <c r="O11">
+        <v>-0.03004027804027804</v>
+      </c>
+      <c r="P11">
+        <v>0.00587965787965788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>0.03231680792019801</v>
-      </c>
-      <c r="D10">
-        <v>0.01883597089927248</v>
-      </c>
-      <c r="E10">
-        <v>-0.04167254181354534</v>
-      </c>
-      <c r="G10">
-        <v>-0.05586139653491338</v>
-      </c>
-      <c r="H10">
-        <v>-0.02501762544063602</v>
-      </c>
-      <c r="I10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="J10">
-        <v>0.06991674791869798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>-0.007725193129828247</v>
-      </c>
-      <c r="D11">
-        <v>0.08581414535363385</v>
-      </c>
-      <c r="E11">
-        <v>0.03180979524488113</v>
-      </c>
-      <c r="G11">
-        <v>0.005941648541213531</v>
-      </c>
-      <c r="H11">
-        <v>0.130828770719268</v>
-      </c>
-      <c r="I11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="J11">
-        <v>-0.0643531088277207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>0.04806870171754295</v>
+        <v>0.006266562266562267</v>
       </c>
       <c r="D12">
-        <v>0.07340433510837772</v>
+        <v>-0.006082554082554083</v>
       </c>
       <c r="E12">
-        <v>0.26249606240156</v>
+        <v>0.00678875478875479</v>
       </c>
       <c r="G12">
-        <v>0.4819845496137404</v>
+        <v>-0.006187350187350188</v>
       </c>
       <c r="H12">
-        <v>-0.08704567614190356</v>
+        <v>-0.01766706566706567</v>
       </c>
       <c r="I12">
-        <v>0.401225530638266</v>
+        <v>-0.02510431310431311</v>
       </c>
       <c r="J12">
-        <v>0.003220580514512863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-0.0241273382721023</v>
+      </c>
+      <c r="K12">
+        <v>-0.01718851718851719</v>
+      </c>
+      <c r="L12">
+        <v>-0.02002536802536803</v>
+      </c>
+      <c r="M12">
+        <v>-0.0008758448758448758</v>
+      </c>
+      <c r="O12">
+        <v>0.02275718275718276</v>
+      </c>
+      <c r="P12">
+        <v>0.03275580875580876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.1930173254331359</v>
+        <v>0.07114846714846715</v>
       </c>
       <c r="D13">
-        <v>0.007863196579914499</v>
+        <v>-0.03181320781320782</v>
       </c>
       <c r="E13">
-        <v>-0.01015825395634891</v>
+        <v>0.030003078003078</v>
       </c>
       <c r="G13">
-        <v>-0.002352058801470037</v>
+        <v>0.009897297897297899</v>
       </c>
       <c r="H13">
-        <v>0.06312907822695568</v>
+        <v>-0.02385003585003585</v>
       </c>
       <c r="I13">
-        <v>0.01811745293632341</v>
+        <v>0.4709067749067749</v>
       </c>
       <c r="J13">
-        <v>0.03624990624765619</v>
+        <v>-0.02200937814143441</v>
+      </c>
+      <c r="K13">
+        <v>-0.05577570777570778</v>
+      </c>
+      <c r="L13">
+        <v>-0.01474873474873475</v>
+      </c>
+      <c r="M13">
+        <v>-0.001442881442881443</v>
+      </c>
+      <c r="O13">
+        <v>0.005070833070833071</v>
+      </c>
+      <c r="P13">
+        <v>0.001810657810657811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>-0.2247801327801328</v>
+      </c>
+      <c r="D14">
+        <v>-0.04910527310527311</v>
+      </c>
+      <c r="E14">
+        <v>0.05178606378606378</v>
+      </c>
+      <c r="G14">
+        <v>0.06617640617640617</v>
+      </c>
+      <c r="H14">
+        <v>-0.04453367653367653</v>
+      </c>
+      <c r="I14">
+        <v>-0.02643480243480243</v>
+      </c>
+      <c r="J14">
+        <v>-0.03447483468168369</v>
+      </c>
+      <c r="K14">
+        <v>-0.04341047541047541</v>
+      </c>
+      <c r="L14">
+        <v>0.01485428685428686</v>
+      </c>
+      <c r="M14">
+        <v>0.03022834222834223</v>
+      </c>
+      <c r="O14">
+        <v>-0.01495200295200295</v>
+      </c>
+      <c r="P14">
+        <v>0.0003816003816003816</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -560,40 +560,40 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.2388313668313668</v>
+        <v>0.3031743174317432</v>
       </c>
       <c r="D4">
-        <v>0.9849294249294249</v>
+        <v>0.9850705070507049</v>
       </c>
       <c r="E4">
-        <v>-0.9973226053226053</v>
+        <v>-0.9973477347734772</v>
       </c>
       <c r="G4">
-        <v>-0.6834886674886675</v>
+        <v>-0.7628682868286828</v>
       </c>
       <c r="H4">
-        <v>0.382964278964279</v>
+        <v>0.3497749774977497</v>
       </c>
       <c r="I4">
-        <v>-0.0415929295929296</v>
+        <v>-0.03313531353135313</v>
       </c>
       <c r="J4">
-        <v>0.214441205727853</v>
+        <v>0.2018001800180018</v>
       </c>
       <c r="K4">
-        <v>0.2614278694278694</v>
+        <v>-0.04021602160216022</v>
       </c>
       <c r="L4">
-        <v>-0.006664590664590665</v>
+        <v>-0.05506150615061506</v>
       </c>
       <c r="M4">
-        <v>-0.07440912240912241</v>
+        <v>-0.1050705070507051</v>
       </c>
       <c r="O4">
-        <v>-0.03497189897189898</v>
+        <v>-0.04297629762976297</v>
       </c>
       <c r="P4">
-        <v>-0.143932055932056</v>
+        <v>-0.05143714371437143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -602,40 +602,40 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.05505541905541907</v>
+        <v>-0.1102190219021902</v>
       </c>
       <c r="D5">
-        <v>0.0685877725877726</v>
+        <v>-0.1154635463546354</v>
       </c>
       <c r="E5">
-        <v>-0.06941031341031342</v>
+        <v>0.1124632463246324</v>
       </c>
       <c r="G5">
-        <v>-0.06523037323037324</v>
+        <v>0.1175637563756376</v>
       </c>
       <c r="H5">
-        <v>-0.02267181467181467</v>
+        <v>-0.2126852685268527</v>
       </c>
       <c r="I5">
-        <v>0.02059155259155259</v>
+        <v>-0.1426222622262226</v>
       </c>
       <c r="J5">
-        <v>0.08419803670322493</v>
+        <v>0.08715271527152714</v>
       </c>
       <c r="K5">
-        <v>0.7809015009015009</v>
+        <v>0.1484908490849085</v>
       </c>
       <c r="L5">
-        <v>0.003006831006831007</v>
+        <v>-0.01184518451845184</v>
       </c>
       <c r="M5">
-        <v>0.04257639057639058</v>
+        <v>0.1243684368436844</v>
       </c>
       <c r="O5">
-        <v>0.0233036153036153</v>
+        <v>0.09144914491449145</v>
       </c>
       <c r="P5">
-        <v>-0.1517299757299757</v>
+        <v>0.0318031803180318</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -644,40 +644,40 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>-0.01031911031911032</v>
+        <v>0.1393579357935794</v>
       </c>
       <c r="D6">
-        <v>-0.01683922083922084</v>
+        <v>0.1216081608160816</v>
       </c>
       <c r="E6">
-        <v>-0.009527481527481528</v>
+        <v>-0.1219321932193219</v>
       </c>
       <c r="G6">
-        <v>-0.09641581241581242</v>
+        <v>-0.08153615361536153</v>
       </c>
       <c r="H6">
-        <v>0.0557985917985918</v>
+        <v>0.03686768676867686</v>
       </c>
       <c r="I6">
-        <v>0.06424772824772824</v>
+        <v>-0.04927692769276927</v>
       </c>
       <c r="J6">
-        <v>-0.01142973549831391</v>
+        <v>-0.04183618361836183</v>
       </c>
       <c r="K6">
-        <v>-0.007179979179979181</v>
+        <v>0.0255985598559856</v>
       </c>
       <c r="L6">
-        <v>-0.1539418779418779</v>
+        <v>0.0008880888088808879</v>
       </c>
       <c r="M6">
-        <v>0.0611915771915772</v>
+        <v>0.1435463546354635</v>
       </c>
       <c r="O6">
-        <v>-0.02280664680664681</v>
+        <v>0.1348334833483348</v>
       </c>
       <c r="P6">
-        <v>0.0104016944016944</v>
+        <v>0.09006900690069006</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -686,40 +686,40 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>0.003648567648567649</v>
+        <v>0.09209720972097209</v>
       </c>
       <c r="D7">
-        <v>0.1442786522786523</v>
+        <v>0.1014341434143414</v>
       </c>
       <c r="E7">
-        <v>0.00406991206991207</v>
+        <v>0.04727272727272726</v>
       </c>
       <c r="G7">
-        <v>0.4873326313326313</v>
+        <v>0.4482568256825681</v>
       </c>
       <c r="H7">
-        <v>-0.02298883098883099</v>
+        <v>0.01466546654665466</v>
       </c>
       <c r="I7">
-        <v>-0.04071701271701272</v>
+        <v>0.007704770477047704</v>
       </c>
       <c r="J7">
-        <v>0.0209314230570116</v>
+        <v>-0.0297989798979898</v>
       </c>
       <c r="K7">
-        <v>0.118972822972823</v>
+        <v>0.2917251725172517</v>
       </c>
       <c r="L7">
-        <v>0.9900167460167461</v>
+        <v>0.9896549654965496</v>
       </c>
       <c r="M7">
-        <v>-0.01097032697032697</v>
+        <v>-0.1735613561356135</v>
       </c>
       <c r="O7">
-        <v>0.412986304986305</v>
+        <v>0.1419141914191419</v>
       </c>
       <c r="P7">
-        <v>-0.01952164352164352</v>
+        <v>-0.09639363936393637</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -728,40 +728,40 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.04044054444054444</v>
+        <v>0.0568136813681368</v>
       </c>
       <c r="D8">
-        <v>-0.02987412587412588</v>
+        <v>-0.06472247224722472</v>
       </c>
       <c r="E8">
-        <v>0.01054670254670255</v>
+        <v>0.07237923792379237</v>
       </c>
       <c r="G8">
-        <v>-0.4883191643191644</v>
+        <v>-0.3736933693369336</v>
       </c>
       <c r="H8">
-        <v>0.9022834582834582</v>
+        <v>0.901182118211821</v>
       </c>
       <c r="I8">
-        <v>0.8663863223863224</v>
+        <v>0.8634503450345034</v>
       </c>
       <c r="J8">
-        <v>-0.152895693813068</v>
+        <v>-0.04122412241224122</v>
       </c>
       <c r="K8">
-        <v>0.1579308499308499</v>
+        <v>0.06573057305730572</v>
       </c>
       <c r="L8">
-        <v>-0.04804749604749605</v>
+        <v>0.008412841284128413</v>
       </c>
       <c r="M8">
-        <v>0.5281199881199882</v>
+        <v>0.1332013201320132</v>
       </c>
       <c r="O8">
-        <v>0.08596377796377797</v>
+        <v>0.03463546354635463</v>
       </c>
       <c r="P8">
-        <v>0.1257506577506578</v>
+        <v>-0.03805580558055805</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -772,40 +772,40 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.8369859089859092</v>
+        <v>0.8214101410141014</v>
       </c>
       <c r="D9">
-        <v>-0.0009812769812769812</v>
+        <v>0.0248064806480648</v>
       </c>
       <c r="E9">
-        <v>-0.01027941427941428</v>
+        <v>-0.03731173117311731</v>
       </c>
       <c r="G9">
-        <v>-0.02157539757539758</v>
+        <v>-0.05136513651365136</v>
       </c>
       <c r="H9">
-        <v>-0.007767223767223767</v>
+        <v>0.02083408340834083</v>
       </c>
       <c r="I9">
-        <v>-0.01252329652329653</v>
+        <v>0.09438943894389439</v>
       </c>
       <c r="J9">
-        <v>0.006040230076471457</v>
+        <v>-0.04457245724572457</v>
       </c>
       <c r="K9">
-        <v>-0.1769056769056769</v>
+        <v>-0.4868286828682867</v>
       </c>
       <c r="L9">
-        <v>-0.0564038964038964</v>
+        <v>-0.03239123912391239</v>
       </c>
       <c r="M9">
-        <v>-0.0196959556959557</v>
+        <v>-0.08802880288028801</v>
       </c>
       <c r="O9">
-        <v>-0.02188565788565789</v>
+        <v>-0.01533753375337533</v>
       </c>
       <c r="P9">
-        <v>-0.03028227028227028</v>
+        <v>-0.09437743774377437</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -816,40 +816,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0.3696193776193776</v>
+        <v>0.2623702370237023</v>
       </c>
       <c r="D10">
-        <v>0.0005792645792645792</v>
+        <v>-0.0488088808880888</v>
       </c>
       <c r="E10">
-        <v>-0.001166209166209166</v>
+        <v>0.06103810381038104</v>
       </c>
       <c r="G10">
-        <v>-0.00875854475854476</v>
+        <v>0.0454005400540054</v>
       </c>
       <c r="H10">
-        <v>0.02043846843846844</v>
+        <v>0.0111011101110111</v>
       </c>
       <c r="I10">
-        <v>0.04376230376230376</v>
+        <v>-0.03294329432943294</v>
       </c>
       <c r="J10">
-        <v>0.02902188519601651</v>
+        <v>-0.06972697269726971</v>
       </c>
       <c r="K10">
-        <v>0.39003651003651</v>
+        <v>0.8430003000300028</v>
       </c>
       <c r="L10">
-        <v>-0.004763236763236763</v>
+        <v>0.07876387638763875</v>
       </c>
       <c r="M10">
-        <v>-0.01353993753993754</v>
+        <v>0.02774677467746775</v>
       </c>
       <c r="O10">
-        <v>0.004950328950328951</v>
+        <v>0.03380738073807381</v>
       </c>
       <c r="P10">
-        <v>0.002351846351846352</v>
+        <v>0.03648364836483647</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -860,40 +860,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-0.06273551073551073</v>
+        <v>-0.09916591659165916</v>
       </c>
       <c r="D11">
-        <v>0.07594218394218394</v>
+        <v>0.09646564656465645</v>
       </c>
       <c r="E11">
-        <v>-0.07491903891903892</v>
+        <v>-0.1143114311431143</v>
       </c>
       <c r="G11">
-        <v>-0.01761605361605362</v>
+        <v>-0.0444044404440444</v>
       </c>
       <c r="H11">
-        <v>-0.01567986367986368</v>
+        <v>-0.1511071107110711</v>
       </c>
       <c r="I11">
-        <v>-0.05291790491790493</v>
+        <v>-0.1291929192919292</v>
       </c>
       <c r="J11">
-        <v>0.02929400346976749</v>
+        <v>-0.01797779777977798</v>
       </c>
       <c r="K11">
-        <v>0.09553474753474754</v>
+        <v>-0.07641164116411642</v>
       </c>
       <c r="L11">
-        <v>-0.003973851973851974</v>
+        <v>-0.1348454845484548</v>
       </c>
       <c r="M11">
-        <v>-0.02255900255900256</v>
+        <v>0.01624962496249625</v>
       </c>
       <c r="O11">
-        <v>-0.03004027804027804</v>
+        <v>-0.03583558355835583</v>
       </c>
       <c r="P11">
-        <v>0.00587965787965788</v>
+        <v>-0.06186618661866185</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -904,40 +904,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.006266562266562267</v>
+        <v>-0.1024182418241824</v>
       </c>
       <c r="D12">
-        <v>-0.006082554082554083</v>
+        <v>-0.1870987098709871</v>
       </c>
       <c r="E12">
-        <v>0.00678875478875479</v>
+        <v>0.1778217821782178</v>
       </c>
       <c r="G12">
-        <v>-0.006187350187350188</v>
+        <v>0.1774977497749775</v>
       </c>
       <c r="H12">
-        <v>-0.01766706566706567</v>
+        <v>-0.1703930393039303</v>
       </c>
       <c r="I12">
-        <v>-0.02510431310431311</v>
+        <v>-0.1041584158415841</v>
       </c>
       <c r="J12">
-        <v>-0.0241273382721023</v>
+        <v>0.05590159015901589</v>
       </c>
       <c r="K12">
-        <v>-0.01718851718851719</v>
+        <v>0.006492649264926492</v>
       </c>
       <c r="L12">
-        <v>-0.02002536802536803</v>
+        <v>0.02282628262826283</v>
       </c>
       <c r="M12">
-        <v>-0.0008758448758448758</v>
+        <v>-0.06024602460246024</v>
       </c>
       <c r="O12">
-        <v>0.02275718275718276</v>
+        <v>-0.01118511851185118</v>
       </c>
       <c r="P12">
-        <v>0.03275580875580876</v>
+        <v>0.07853585358535851</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -946,40 +946,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.07114846714846715</v>
+        <v>0.2166456645664566</v>
       </c>
       <c r="D13">
-        <v>-0.03181320781320782</v>
+        <v>0.07679567956795678</v>
       </c>
       <c r="E13">
-        <v>0.030003078003078</v>
+        <v>-0.07960396039603959</v>
       </c>
       <c r="G13">
-        <v>0.009897297897297899</v>
+        <v>-0.0516051605160516</v>
       </c>
       <c r="H13">
-        <v>-0.02385003585003585</v>
+        <v>0.0155055505550555</v>
       </c>
       <c r="I13">
-        <v>0.4709067749067749</v>
+        <v>0.4652265226522652</v>
       </c>
       <c r="J13">
-        <v>-0.02200937814143441</v>
+        <v>0.09809780978097808</v>
       </c>
       <c r="K13">
-        <v>-0.05577570777570778</v>
+        <v>-0.2077887788778878</v>
       </c>
       <c r="L13">
-        <v>-0.01474873474873475</v>
+        <v>-0.01333333333333333</v>
       </c>
       <c r="M13">
-        <v>-0.001442881442881443</v>
+        <v>-0.03635163516351635</v>
       </c>
       <c r="O13">
-        <v>0.005070833070833071</v>
+        <v>-0.02473447344734473</v>
       </c>
       <c r="P13">
-        <v>0.001810657810657811</v>
+        <v>-0.1393579357935794</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -988,40 +988,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.2247801327801328</v>
+        <v>-0.1573957395739574</v>
       </c>
       <c r="D14">
-        <v>-0.04910527310527311</v>
+        <v>-0.01382538253825382</v>
       </c>
       <c r="E14">
-        <v>0.05178606378606378</v>
+        <v>-0.01106510651065106</v>
       </c>
       <c r="G14">
-        <v>0.06617640617640617</v>
+        <v>-0.08930093009300928</v>
       </c>
       <c r="H14">
-        <v>-0.04453367653367653</v>
+        <v>0.02011401140114011</v>
       </c>
       <c r="I14">
-        <v>-0.02643480243480243</v>
+        <v>-0.03866786678667866</v>
       </c>
       <c r="J14">
-        <v>-0.03447483468168369</v>
+        <v>-0.08414041404140414</v>
       </c>
       <c r="K14">
-        <v>-0.04341047541047541</v>
+        <v>-0.1655805580558056</v>
       </c>
       <c r="L14">
-        <v>0.01485428685428686</v>
+        <v>-0.1684728472847285</v>
       </c>
       <c r="M14">
-        <v>0.03022834222834223</v>
+        <v>0.03710771077107711</v>
       </c>
       <c r="O14">
-        <v>-0.01495200295200295</v>
+        <v>-0.03481548154815481</v>
       </c>
       <c r="P14">
-        <v>0.0003816003816003816</v>
+        <v>0.1923312331233123</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -620,40 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.2969696969696969</v>
+        <v>0.3018999618999619</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999999</v>
+        <v>0.9886549366549366</v>
       </c>
       <c r="E4">
-        <v>-0.9030303030303028</v>
+        <v>-0.702968082968083</v>
       </c>
       <c r="G4">
-        <v>-0.4909090909090909</v>
+        <v>-0.08710915510915512</v>
       </c>
       <c r="H4">
-        <v>0.2606060606060606</v>
+        <v>0.1832505152505153</v>
       </c>
       <c r="I4">
-        <v>0.103030303030303</v>
+        <v>0.02838746838746839</v>
       </c>
       <c r="J4">
-        <v>0.4545454545454545</v>
+        <v>0.55311241809043</v>
       </c>
       <c r="K4">
-        <v>-0.1515151515151515</v>
+        <v>-0.0007806967806967808</v>
       </c>
       <c r="L4">
-        <v>-0.1515151515151515</v>
+        <v>-0.02468847668847669</v>
       </c>
       <c r="M4">
-        <v>0.5515151515151515</v>
+        <v>-0.005367485367485368</v>
       </c>
       <c r="O4">
-        <v>0.6</v>
+        <v>0.1452641412641413</v>
       </c>
       <c r="P4">
-        <v>0.2727272727272727</v>
+        <v>-0.2360899400899401</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.1878787878787879</v>
+        <v>-0.01788660588660589</v>
       </c>
       <c r="D5">
-        <v>0.1636363636363636</v>
+        <v>0.06987904587904588</v>
       </c>
       <c r="E5">
-        <v>-0.2363636363636363</v>
+        <v>-0.05282021282021282</v>
       </c>
       <c r="G5">
-        <v>-0.06666666666666665</v>
+        <v>-0.00505939705939706</v>
       </c>
       <c r="H5">
-        <v>0.1272727272727273</v>
+        <v>0.05604408804408804</v>
       </c>
       <c r="I5">
-        <v>0.01818181818181818</v>
+        <v>-0.00532930132930133</v>
       </c>
       <c r="J5">
-        <v>0.4181818181818182</v>
+        <v>0.1453900106985208</v>
       </c>
       <c r="K5">
-        <v>-0.3818181818181818</v>
+        <v>-0.01201096801096801</v>
       </c>
       <c r="L5">
-        <v>0.4909090909090909</v>
+        <v>-0.02967384567384567</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>-0.008722796722796723</v>
       </c>
       <c r="O5">
-        <v>0.4424242424242424</v>
+        <v>-0.02223855423855424</v>
       </c>
       <c r="P5">
-        <v>-0.3575757575757575</v>
+        <v>-0.03104961104961105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,40 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.09090909090909088</v>
+        <v>0.0298019938019938</v>
       </c>
       <c r="D6">
-        <v>0.4181818181818182</v>
+        <v>-0.009706641706641707</v>
       </c>
       <c r="E6">
-        <v>-0.3212121212121212</v>
+        <v>-0.01849279849279849</v>
       </c>
       <c r="G6">
-        <v>-0.0303030303030303</v>
+        <v>-0.05437337437337438</v>
       </c>
       <c r="H6">
-        <v>0.3333333333333333</v>
+        <v>0.03333771333771334</v>
       </c>
       <c r="I6">
-        <v>0.2969696969696969</v>
+        <v>0.02813134013134014</v>
       </c>
       <c r="J6">
-        <v>-0.1151515151515151</v>
+        <v>0.04023088059295852</v>
       </c>
       <c r="K6">
-        <v>-0.1636363636363636</v>
+        <v>-0.07557699957699958</v>
       </c>
       <c r="L6">
-        <v>-0.406060606060606</v>
+        <v>-0.3001771681771682</v>
       </c>
       <c r="M6">
-        <v>0.1151515151515151</v>
+        <v>-0.01543304743304743</v>
       </c>
       <c r="O6">
-        <v>-0.0303030303030303</v>
+        <v>-0.05523471123471124</v>
       </c>
       <c r="P6">
-        <v>0.006060606060606061</v>
+        <v>0.05942858342858343</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,40 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.2363636363636363</v>
+        <v>0.0466939546939547</v>
       </c>
       <c r="D7">
-        <v>-0.06666666666666665</v>
+        <v>0.1001711321711322</v>
       </c>
       <c r="E7">
-        <v>-0.06666666666666665</v>
+        <v>0.03938483138483138</v>
       </c>
       <c r="G7">
-        <v>0.05454545454545454</v>
+        <v>0.2180585300585301</v>
       </c>
       <c r="H7">
-        <v>-0.4666666666666666</v>
+        <v>-0.05156469956469957</v>
       </c>
       <c r="I7">
-        <v>-0.3818181818181818</v>
+        <v>-0.05220785220785221</v>
       </c>
       <c r="J7">
-        <v>0.5151515151515151</v>
+        <v>-0.008165066238551835</v>
       </c>
       <c r="K7">
-        <v>0.2969696969696969</v>
+        <v>0.1566720726720727</v>
       </c>
       <c r="L7">
-        <v>0.9272727272727272</v>
+        <v>0.8892954252954254</v>
       </c>
       <c r="M7">
-        <v>0.3212121212121212</v>
+        <v>-0.04507570507570508</v>
       </c>
       <c r="O7">
-        <v>0.2484848484848484</v>
+        <v>0.1963978003978004</v>
       </c>
       <c r="P7">
-        <v>-0.3333333333333333</v>
+        <v>0.01831347031347031</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,40 +788,40 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.006060606060606061</v>
+        <v>0.1821125661125661</v>
       </c>
       <c r="D8">
-        <v>0.1636363636363636</v>
+        <v>0.01288616488616489</v>
       </c>
       <c r="E8">
-        <v>-0.3454545454545455</v>
+        <v>0.001831117831117831</v>
       </c>
       <c r="G8">
-        <v>-0.6484848484848483</v>
+        <v>-0.4331118251118251</v>
       </c>
       <c r="H8">
-        <v>0.9515151515151514</v>
+        <v>0.9539010419010419</v>
       </c>
       <c r="I8">
-        <v>0.9757575757575757</v>
+        <v>0.977944025944026</v>
       </c>
       <c r="J8">
-        <v>-0.3696969696969697</v>
+        <v>-0.2028070206322838</v>
       </c>
       <c r="K8">
-        <v>0.07878787878787878</v>
+        <v>-0.04622272622272623</v>
       </c>
       <c r="L8">
-        <v>-0.4303030303030302</v>
+        <v>-0.06702569502569503</v>
       </c>
       <c r="M8">
-        <v>0.3939393939393939</v>
+        <v>-0.02630984630984631</v>
       </c>
       <c r="O8">
-        <v>0.2363636363636363</v>
+        <v>-0.1293125853125853</v>
       </c>
       <c r="P8">
-        <v>0.5393939393939393</v>
+        <v>0.3472763752763753</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,40 +830,40 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.2121212121212121</v>
+        <v>0.001288345288345289</v>
       </c>
       <c r="D9">
-        <v>0.2242424242424242</v>
+        <v>-0.01004103404103404</v>
       </c>
       <c r="E9">
-        <v>-0.2606060606060606</v>
+        <v>-0.03673480873480874</v>
       </c>
       <c r="G9">
-        <v>-0.1151515151515151</v>
+        <v>-0.1035626115626116</v>
       </c>
       <c r="H9">
-        <v>0.01818181818181818</v>
+        <v>0.02937732537732538</v>
       </c>
       <c r="I9">
-        <v>0.07878787878787878</v>
+        <v>0.03047064647064647</v>
       </c>
       <c r="J9">
-        <v>-0.01818181818181818</v>
+        <v>-0.01629929844599213</v>
       </c>
       <c r="K9">
-        <v>-0.1757575757575758</v>
+        <v>-0.03437571437571438</v>
       </c>
       <c r="L9">
-        <v>-0.3333333333333333</v>
+        <v>-0.2873874593874594</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.05052053052053053</v>
       </c>
       <c r="O9">
-        <v>0.2606060606060606</v>
+        <v>-0.03613214413214413</v>
       </c>
       <c r="P9">
-        <v>-0.3818181818181818</v>
+        <v>-0.02261833061833062</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,40 +872,40 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.06666666666666665</v>
+        <v>-0.0133007053007053</v>
       </c>
       <c r="D10">
-        <v>-0.1878787878787879</v>
+        <v>0.03085505485505485</v>
       </c>
       <c r="E10">
-        <v>0.07878787878787878</v>
+        <v>-0.04408282408282409</v>
       </c>
       <c r="G10">
-        <v>-0.06666666666666665</v>
+        <v>-0.002230742230742231</v>
       </c>
       <c r="H10">
-        <v>-0.2242424242424242</v>
+        <v>-0.06354771954771955</v>
       </c>
       <c r="I10">
-        <v>-0.2606060606060606</v>
+        <v>-0.0893987573987574</v>
       </c>
       <c r="J10">
-        <v>-0.07878787878787878</v>
+        <v>0.07009328272412227</v>
       </c>
       <c r="K10">
-        <v>0.2363636363636363</v>
+        <v>-0.01641581241581241</v>
       </c>
       <c r="L10">
-        <v>0.1515151515151515</v>
+        <v>-0.1078256158256159</v>
       </c>
       <c r="M10">
-        <v>0.103030303030303</v>
+        <v>0.0293975933975934</v>
       </c>
       <c r="O10">
-        <v>-0.1151515151515151</v>
+        <v>0.02430991230991231</v>
       </c>
       <c r="P10">
-        <v>0.1636363636363636</v>
+        <v>0.001805053805053805</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +914,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>0.09090909090909088</v>
+        <v>-0.02544728544728545</v>
       </c>
       <c r="D11">
-        <v>0.3939393939393939</v>
+        <v>-0.02562226962226962</v>
       </c>
       <c r="E11">
-        <v>-0.406060606060606</v>
+        <v>0.01741778941778942</v>
       </c>
       <c r="G11">
-        <v>-0.2484848484848484</v>
+        <v>0.01024393024393024</v>
       </c>
       <c r="H11">
-        <v>-0.3212121212121212</v>
+        <v>-0.01829206229206229</v>
       </c>
       <c r="I11">
-        <v>-0.2484848484848484</v>
+        <v>-0.01283276483276483</v>
       </c>
       <c r="J11">
-        <v>0.5757575757575757</v>
+        <v>-0.0318867801737612</v>
       </c>
       <c r="K11">
-        <v>0.3818181818181818</v>
+        <v>0.06209283809283809</v>
       </c>
       <c r="L11">
-        <v>0.5878787878787878</v>
+        <v>0.07824181824181825</v>
       </c>
       <c r="M11">
-        <v>0.4787878787878787</v>
+        <v>0.01951491151491152</v>
       </c>
       <c r="O11">
-        <v>0.406060606060606</v>
+        <v>0.02641571041571042</v>
       </c>
       <c r="P11">
-        <v>0.1636363636363636</v>
+        <v>-0.000953052953052953</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,40 +956,40 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.2848484848484849</v>
+        <v>0.007580983580983582</v>
       </c>
       <c r="D12">
-        <v>-0.01818181818181818</v>
+        <v>0.02452984852984853</v>
       </c>
       <c r="E12">
-        <v>-0.103030303030303</v>
+        <v>0.008824676824676825</v>
       </c>
       <c r="G12">
-        <v>0.0303030303030303</v>
+        <v>0.06165674565674566</v>
       </c>
       <c r="H12">
-        <v>-0.2</v>
+        <v>-0.04607067407067408</v>
       </c>
       <c r="I12">
-        <v>-0.1272727272727273</v>
+        <v>-0.03755493755493756</v>
       </c>
       <c r="J12">
-        <v>-0.04242424242424241</v>
+        <v>-0.00735585742206014</v>
       </c>
       <c r="K12">
-        <v>0.04242424242424241</v>
+        <v>0.05103168303168303</v>
       </c>
       <c r="L12">
-        <v>-0.1151515151515151</v>
+        <v>0.08816633216633217</v>
       </c>
       <c r="M12">
-        <v>0.1515151515151515</v>
+        <v>-0.02986842586842587</v>
       </c>
       <c r="O12">
-        <v>0.1393939393939394</v>
+        <v>-0.0204997044997045</v>
       </c>
       <c r="P12">
-        <v>-0.5636363636363636</v>
+        <v>-0.06208752208752209</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,40 +998,40 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.4303030303030302</v>
+        <v>0.04008019608019608</v>
       </c>
       <c r="D13">
-        <v>-0.309090909090909</v>
+        <v>0.03878743478743479</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>-0.01997329997329998</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>-0.005516621516621517</v>
       </c>
       <c r="H13">
-        <v>-0.2484848484848484</v>
+        <v>0.02722334722334722</v>
       </c>
       <c r="I13">
-        <v>-0.1393939393939394</v>
+        <v>0.01813471813471814</v>
       </c>
       <c r="J13">
-        <v>-0.5151515151515151</v>
+        <v>-0.02692308916539697</v>
       </c>
       <c r="K13">
-        <v>0.2848484848484849</v>
+        <v>0.00355979155979156</v>
       </c>
       <c r="L13">
-        <v>0.1272727272727273</v>
+        <v>0.022999786999787</v>
       </c>
       <c r="M13">
-        <v>0.05454545454545454</v>
+        <v>0.008160524160524162</v>
       </c>
       <c r="O13">
-        <v>-0.1151515151515151</v>
+        <v>-0.006037902037902039</v>
       </c>
       <c r="P13">
-        <v>-0.01818181818181818</v>
+        <v>-0.03548996348996349</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,40 +1042,40 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.7939393939393938</v>
+        <v>0.7195130035130036</v>
       </c>
       <c r="D14">
-        <v>-0.05454545454545454</v>
+        <v>-0.05724993324993326</v>
       </c>
       <c r="E14">
-        <v>0.05454545454545454</v>
+        <v>0.03649088449088449</v>
       </c>
       <c r="G14">
-        <v>0.2969696969696969</v>
+        <v>-0.007837387837387837</v>
       </c>
       <c r="H14">
-        <v>-0.309090909090909</v>
+        <v>-0.01075198675198675</v>
       </c>
       <c r="I14">
-        <v>-0.3454545454545455</v>
+        <v>0.002840966840966841</v>
       </c>
       <c r="J14">
-        <v>-0.1515151515151515</v>
+        <v>-0.02921264347555727</v>
       </c>
       <c r="K14">
-        <v>-0.09090909090909088</v>
+        <v>-0.3552524952524952</v>
       </c>
       <c r="L14">
-        <v>0.2121212121212121</v>
+        <v>-0.04686878286878287</v>
       </c>
       <c r="M14">
-        <v>-0.06666666666666665</v>
+        <v>0.01646514446514447</v>
       </c>
       <c r="O14">
-        <v>0.1272727272727273</v>
+        <v>-0.05552307152307152</v>
       </c>
       <c r="P14">
-        <v>-0.2848484848484849</v>
+        <v>0.01221217221217221</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,40 +1086,40 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.309090909090909</v>
+        <v>0.3954025914025914</v>
       </c>
       <c r="D15">
-        <v>-0.05454545454545454</v>
+        <v>-0.01487883887883888</v>
       </c>
       <c r="E15">
-        <v>-0.103030303030303</v>
+        <v>0.01880448680448681</v>
       </c>
       <c r="G15">
-        <v>-0.309090909090909</v>
+        <v>0.0416051816051816</v>
       </c>
       <c r="H15">
-        <v>-0.1393939393939394</v>
+        <v>-0.05464264264264265</v>
       </c>
       <c r="I15">
-        <v>0.1515151515151515</v>
+        <v>-0.06332244332244331</v>
       </c>
       <c r="J15">
-        <v>0.04242424242424241</v>
+        <v>-0.03149947978297511</v>
       </c>
       <c r="K15">
-        <v>0.9515151515151514</v>
+        <v>0.8975855495855498</v>
       </c>
       <c r="L15">
-        <v>0.2</v>
+        <v>0.04135069735069735</v>
       </c>
       <c r="M15">
-        <v>0.3939393939393939</v>
+        <v>-0.01837654237654238</v>
       </c>
       <c r="O15">
-        <v>0.0303030303030303</v>
+        <v>0.04595960195960196</v>
       </c>
       <c r="P15">
-        <v>0.2969696969696969</v>
+        <v>-0.07425158625158626</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,40 +1130,40 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.2727272727272727</v>
+        <v>-0.09017452217452218</v>
       </c>
       <c r="D16">
-        <v>-0.7818181818181817</v>
+        <v>-0.01782292182292183</v>
       </c>
       <c r="E16">
-        <v>0.5636363636363636</v>
+        <v>0.00120980520980521</v>
       </c>
       <c r="G16">
-        <v>0.1757575757575758</v>
+        <v>-0.02974997374997376</v>
       </c>
       <c r="H16">
-        <v>-0.3818181818181818</v>
+        <v>-0.0074001914001914</v>
       </c>
       <c r="I16">
-        <v>-0.1757575757575758</v>
+        <v>-0.008551280551280552</v>
       </c>
       <c r="J16">
-        <v>-0.06666666666666665</v>
+        <v>0.01826062842497408</v>
       </c>
       <c r="K16">
-        <v>0.2</v>
+        <v>0.0106006786006786</v>
       </c>
       <c r="L16">
-        <v>0.309090909090909</v>
+        <v>-0.01925170325170325</v>
       </c>
       <c r="M16">
-        <v>-0.1878787878787879</v>
+        <v>0.01342083742083742</v>
       </c>
       <c r="O16">
-        <v>-0.07878787878787878</v>
+        <v>0.002752586752586753</v>
       </c>
       <c r="P16">
-        <v>-0.5393939393939393</v>
+        <v>0.01766329766329766</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,40 +1174,40 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.1272727272727273</v>
+        <v>-0.03568183168183169</v>
       </c>
       <c r="D17">
-        <v>-0.07878787878787878</v>
+        <v>0.007808923808923809</v>
       </c>
       <c r="E17">
-        <v>0.3454545454545455</v>
+        <v>0.01499055899055899</v>
       </c>
       <c r="G17">
-        <v>0.4545454545454545</v>
+        <v>0.02830458430458431</v>
       </c>
       <c r="H17">
-        <v>-0.04242424242424241</v>
+        <v>0.01474737874737875</v>
       </c>
       <c r="I17">
-        <v>-0.1878787878787879</v>
+        <v>0.001472761472761473</v>
       </c>
       <c r="J17">
-        <v>0.1878787878787879</v>
+        <v>0.002619524643100365</v>
       </c>
       <c r="K17">
-        <v>-0.4181818181818182</v>
+        <v>-0.04634579834579834</v>
       </c>
       <c r="L17">
-        <v>0.006060606060606061</v>
+        <v>0.01076315876315876</v>
       </c>
       <c r="M17">
-        <v>-0.6121212121212121</v>
+        <v>-0.03930501930501931</v>
       </c>
       <c r="O17">
-        <v>-0.3696969696969697</v>
+        <v>-0.003432471432471433</v>
       </c>
       <c r="P17">
-        <v>-0.06666666666666665</v>
+        <v>0.007367959367959368</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,40 +1216,40 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>-0.3696969696969697</v>
+        <v>0.05537267537267537</v>
       </c>
       <c r="D18">
-        <v>-0.5151515151515151</v>
+        <v>0.05461727461727462</v>
       </c>
       <c r="E18">
-        <v>0.2</v>
+        <v>-0.04361058761058761</v>
       </c>
       <c r="G18">
-        <v>-0.2484848484848484</v>
+        <v>0.0211952731952732</v>
       </c>
       <c r="H18">
-        <v>0.1515151515151515</v>
+        <v>-0.01328584928584929</v>
       </c>
       <c r="I18">
-        <v>0.2969696969696969</v>
+        <v>0.1891953571953572</v>
       </c>
       <c r="J18">
-        <v>-0.1272727272727273</v>
+        <v>0.02231582251666492</v>
       </c>
       <c r="K18">
-        <v>0.01818181818181818</v>
+        <v>-0.01843197043197043</v>
       </c>
       <c r="L18">
-        <v>0.0303030303030303</v>
+        <v>0.03407169407169407</v>
       </c>
       <c r="M18">
-        <v>0.1151515151515151</v>
+        <v>-0.01773241773241773</v>
       </c>
       <c r="O18">
-        <v>0.2242424242424242</v>
+        <v>0.01499519099519099</v>
       </c>
       <c r="P18">
-        <v>-0.3939393939393939</v>
+        <v>-0.02546200946200947</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,40 +1258,40 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.2969696969696969</v>
+        <v>-0.1649282489282489</v>
       </c>
       <c r="D19">
-        <v>-0.07878787878787878</v>
+        <v>0.01436863436863437</v>
       </c>
       <c r="E19">
-        <v>-0.103030303030303</v>
+        <v>-0.00128978528978529</v>
       </c>
       <c r="G19">
-        <v>-0.103030303030303</v>
+        <v>0.0122971322971323</v>
       </c>
       <c r="H19">
-        <v>0.006060606060606061</v>
+        <v>-0.006952626952626952</v>
       </c>
       <c r="I19">
-        <v>0.2121212121212121</v>
+        <v>-0.01142872742872743</v>
       </c>
       <c r="J19">
-        <v>-0.2848484848484849</v>
+        <v>0.004074964111638789</v>
       </c>
       <c r="K19">
-        <v>0.2727272727272727</v>
+        <v>-0.07595516795516796</v>
       </c>
       <c r="L19">
-        <v>-0.1393939393939394</v>
+        <v>0.04900729300729301</v>
       </c>
       <c r="M19">
-        <v>0.2848484848484849</v>
+        <v>-0.01786008586008586</v>
       </c>
       <c r="O19">
-        <v>0.1757575757575758</v>
+        <v>0.01965161565161565</v>
       </c>
       <c r="P19">
-        <v>-0.3212121212121212</v>
+        <v>0.01208643608643609</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.103030303030303</v>
+        <v>0.04728113928113929</v>
       </c>
       <c r="D20">
-        <v>-0.006060606060606061</v>
+        <v>-0.004681768681768683</v>
       </c>
       <c r="E20">
-        <v>-0.04242424242424241</v>
+        <v>0.03582795582795584</v>
       </c>
       <c r="G20">
-        <v>-0.1272727272727273</v>
+        <v>0.02588372588372588</v>
       </c>
       <c r="H20">
-        <v>0.5151515151515151</v>
+        <v>0.02684910284910285</v>
       </c>
       <c r="I20">
-        <v>0.5151515151515151</v>
+        <v>0.01041791841791842</v>
       </c>
       <c r="J20">
-        <v>-0.7333333333333332</v>
+        <v>-0.06143936599232029</v>
       </c>
       <c r="K20">
-        <v>-0.07878787878787878</v>
+        <v>0.03766886566886567</v>
       </c>
       <c r="L20">
-        <v>-0.5272727272727272</v>
+        <v>-0.03976845976845977</v>
       </c>
       <c r="M20">
-        <v>0.09090909090909088</v>
+        <v>-0.05097504297504298</v>
       </c>
       <c r="O20">
-        <v>-0.1393939393939394</v>
+        <v>-0.03565483165483166</v>
       </c>
       <c r="P20">
-        <v>0.3696969696969697</v>
+        <v>-0.01012048612048612</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,40 +1346,40 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.07878787878787878</v>
+        <v>-0.01071399471399472</v>
       </c>
       <c r="D21">
-        <v>0.006060606060606061</v>
+        <v>0.01871820671820672</v>
       </c>
       <c r="E21">
-        <v>0.1636363636363636</v>
+        <v>-0.01596030396030396</v>
       </c>
       <c r="G21">
-        <v>0.309090909090909</v>
+        <v>0.007632907632907633</v>
       </c>
       <c r="H21">
-        <v>-0.103030303030303</v>
+        <v>0.002547194547194547</v>
       </c>
       <c r="I21">
-        <v>-0.04242424242424241</v>
+        <v>0.003907131907131907</v>
       </c>
       <c r="J21">
-        <v>0.2848484848484849</v>
+        <v>-0.008110004182994221</v>
       </c>
       <c r="K21">
-        <v>-0.05454545454545454</v>
+        <v>-0.008810336810336812</v>
       </c>
       <c r="L21">
-        <v>-0.2121212121212121</v>
+        <v>0.002763494763494764</v>
       </c>
       <c r="M21">
-        <v>-0.3696969696969697</v>
+        <v>-0.01654936054936055</v>
       </c>
       <c r="O21">
-        <v>-0.309090909090909</v>
+        <v>-0.03526161526161527</v>
       </c>
       <c r="P21">
-        <v>-0.4303030303030302</v>
+        <v>-0.009856905856905856</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,40 +1390,40 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.309090909090909</v>
+        <v>-0.1207596847596848</v>
       </c>
       <c r="D22">
-        <v>-0.1757575757575758</v>
+        <v>-0.01336290136290136</v>
       </c>
       <c r="E22">
-        <v>0.2121212121212121</v>
+        <v>-0.01232283632283632</v>
       </c>
       <c r="G22">
-        <v>0.2121212121212121</v>
+        <v>-0.03825258225258225</v>
       </c>
       <c r="H22">
-        <v>0.0303030303030303</v>
+        <v>0.02457717657717658</v>
       </c>
       <c r="I22">
-        <v>-0.2242424242424242</v>
+        <v>0.02280578280578281</v>
       </c>
       <c r="J22">
-        <v>-0.1757575757575758</v>
+        <v>-0.01878177095080689</v>
       </c>
       <c r="K22">
-        <v>-0.3575757575757575</v>
+        <v>-0.05887334287334287</v>
       </c>
       <c r="L22">
-        <v>0.406060606060606</v>
+        <v>-0.01019089019089019</v>
       </c>
       <c r="M22">
-        <v>-0.1272727272727273</v>
+        <v>0.0238954318954319</v>
       </c>
       <c r="O22">
-        <v>-0.2606060606060606</v>
+        <v>0.06501167301167302</v>
       </c>
       <c r="P22">
-        <v>0.3696969696969697</v>
+        <v>0.01152375552375553</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,40 +1432,40 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.2969696969696969</v>
+        <v>0.00391964791964792</v>
       </c>
       <c r="D23">
-        <v>-0.3333333333333333</v>
+        <v>-0.02804233604233605</v>
       </c>
       <c r="E23">
-        <v>0.1636363636363636</v>
+        <v>0.03125935925935926</v>
       </c>
       <c r="G23">
-        <v>-0.103030303030303</v>
+        <v>0.005902373902373903</v>
       </c>
       <c r="H23">
-        <v>0.2606060606060606</v>
+        <v>0.01007680607680608</v>
       </c>
       <c r="I23">
-        <v>0.4909090909090909</v>
+        <v>0.02353199953199953</v>
       </c>
       <c r="J23">
-        <v>-0.4545454545454545</v>
+        <v>-0.02776420601408387</v>
       </c>
       <c r="K23">
-        <v>0.1272727272727273</v>
+        <v>-0.0003851163851163851</v>
       </c>
       <c r="L23">
-        <v>-0.2606060606060606</v>
+        <v>-0.0841924681924682</v>
       </c>
       <c r="M23">
-        <v>-0.006060606060606061</v>
+        <v>-0.01857407457407458</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>-0.02590916590916591</v>
       </c>
       <c r="P23">
-        <v>-0.2</v>
+        <v>-0.06522275322275323</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,40 +1476,40 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>0.09090909090909088</v>
+        <v>-0.06948940548940549</v>
       </c>
       <c r="D24">
-        <v>-0.309090909090909</v>
+        <v>0.02803790803790804</v>
       </c>
       <c r="E24">
-        <v>0.3333333333333333</v>
+        <v>-0.009433161433161434</v>
       </c>
       <c r="G24">
-        <v>0.5151515151515151</v>
+        <v>0.02702982302982303</v>
       </c>
       <c r="H24">
-        <v>-0.1757575757575758</v>
+        <v>0.1859242259242259</v>
       </c>
       <c r="I24">
-        <v>-0.3212121212121212</v>
+        <v>-0.05177709977709978</v>
       </c>
       <c r="J24">
-        <v>-0.4424242424242424</v>
+        <v>0.07054509518000104</v>
       </c>
       <c r="K24">
-        <v>-0.4787878787878787</v>
+        <v>0.009534837534837536</v>
       </c>
       <c r="L24">
-        <v>0.1272727272727273</v>
+        <v>0.03532951132951133</v>
       </c>
       <c r="M24">
-        <v>-0.2848484848484849</v>
+        <v>-0.01181222381222381</v>
       </c>
       <c r="O24">
-        <v>-0.2363636363636363</v>
+        <v>0.03990535590535591</v>
       </c>
       <c r="P24">
-        <v>-0.2848484848484849</v>
+        <v>0.1859460419460419</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,40 +1520,40 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.2121212121212121</v>
+        <v>0.02527860127860128</v>
       </c>
       <c r="D25">
-        <v>0.5151515151515151</v>
+        <v>-0.02447020847020847</v>
       </c>
       <c r="E25">
-        <v>-0.4545454545454545</v>
+        <v>0.1232920232920233</v>
       </c>
       <c r="G25">
-        <v>-0.2242424242424242</v>
+        <v>0.1197412557412558</v>
       </c>
       <c r="H25">
-        <v>0.1878787878787879</v>
+        <v>-0.02152114552114552</v>
       </c>
       <c r="I25">
-        <v>-0.0303030303030303</v>
+        <v>-0.01576635976635977</v>
       </c>
       <c r="J25">
-        <v>-0.1515151515151515</v>
+        <v>-0.002917694943954198</v>
       </c>
       <c r="K25">
-        <v>0.006060606060606061</v>
+        <v>0.01488291888291888</v>
       </c>
       <c r="L25">
-        <v>-0.0303030303030303</v>
+        <v>0.03798051798051798</v>
       </c>
       <c r="M25">
-        <v>0.3575757575757575</v>
+        <v>0.0733867453867454</v>
       </c>
       <c r="O25">
-        <v>0.0303030303030303</v>
+        <v>0.06798148398148399</v>
       </c>
       <c r="P25">
-        <v>0.709090909090909</v>
+        <v>-0.04194317394317395</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,40 +1562,40 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.006060606060606061</v>
+        <v>0.08114754914754917</v>
       </c>
       <c r="D26">
-        <v>0.3333333333333333</v>
+        <v>0.03658962058962059</v>
       </c>
       <c r="E26">
-        <v>-0.2727272727272727</v>
+        <v>0.02482821682821683</v>
       </c>
       <c r="G26">
-        <v>0.0303030303030303</v>
+        <v>0.04636429036429036</v>
       </c>
       <c r="H26">
-        <v>0.1272727272727273</v>
+        <v>0.01784125784125784</v>
       </c>
       <c r="I26">
-        <v>-0.1878787878787879</v>
+        <v>0.001316821316821317</v>
       </c>
       <c r="J26">
-        <v>0.103030303030303</v>
+        <v>0.004502512543035156</v>
       </c>
       <c r="K26">
-        <v>-0.8060606060606059</v>
+        <v>-0.05236759636759637</v>
       </c>
       <c r="L26">
-        <v>0.0303030303030303</v>
+        <v>-0.02425658425658426</v>
       </c>
       <c r="M26">
-        <v>0.0303030303030303</v>
+        <v>0.05910806310806312</v>
       </c>
       <c r="O26">
-        <v>0.3333333333333333</v>
+        <v>-0.01395620595620596</v>
       </c>
       <c r="P26">
-        <v>-0.1757575757575758</v>
+        <v>0.01156037956037956</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,40 +1604,40 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.3696969696969697</v>
+        <v>0.05763624963624964</v>
       </c>
       <c r="D27">
-        <v>0.1636363636363636</v>
+        <v>0.01499439899439899</v>
       </c>
       <c r="E27">
-        <v>-0.2121212121212121</v>
+        <v>0.1648178128178128</v>
       </c>
       <c r="G27">
-        <v>-0.3575757575757575</v>
+        <v>0.09100629100629101</v>
       </c>
       <c r="H27">
-        <v>0.5151515151515151</v>
+        <v>-0.0004411204411204412</v>
       </c>
       <c r="I27">
-        <v>0.4787878787878787</v>
+        <v>-0.01675240075240075</v>
       </c>
       <c r="J27">
-        <v>-0.2848484848484849</v>
+        <v>-0.011096867196739</v>
       </c>
       <c r="K27">
-        <v>-0.2363636363636363</v>
+        <v>0.0009205929205929208</v>
       </c>
       <c r="L27">
-        <v>-0.309090909090909</v>
+        <v>-0.02572725772725773</v>
       </c>
       <c r="M27">
-        <v>0.2</v>
+        <v>0.09532783132783133</v>
       </c>
       <c r="O27">
-        <v>0.2484848484848484</v>
+        <v>-0.01518297918297918</v>
       </c>
       <c r="P27">
-        <v>0.3696969696969697</v>
+        <v>0.02278787878787879</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,40 +1646,40 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>-0.2969696969696969</v>
+        <v>0.01094363894363895</v>
       </c>
       <c r="D28">
-        <v>0.309090909090909</v>
+        <v>0.01069089469089469</v>
       </c>
       <c r="E28">
-        <v>-0.309090909090909</v>
+        <v>0.03947876747876748</v>
       </c>
       <c r="G28">
-        <v>-0.09090909090909088</v>
+        <v>0.04952073752073752</v>
       </c>
       <c r="H28">
-        <v>0.1272727272727273</v>
+        <v>-0.03537689937689938</v>
       </c>
       <c r="I28">
-        <v>0.1151515151515151</v>
+        <v>-0.02799691599691599</v>
       </c>
       <c r="J28">
-        <v>0.1757575757575758</v>
+        <v>0.02581752804988581</v>
       </c>
       <c r="K28">
-        <v>-0.2848484848484849</v>
+        <v>-0.007289311289311289</v>
       </c>
       <c r="L28">
-        <v>-0.1757575757575758</v>
+        <v>0.03401128601128602</v>
       </c>
       <c r="M28">
-        <v>0.2</v>
+        <v>0.01997511197511198</v>
       </c>
       <c r="O28">
-        <v>0.2</v>
+        <v>-0.002181182181182181</v>
       </c>
       <c r="P28">
-        <v>-0.3696969696969697</v>
+        <v>-0.01644810444810445</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,40 +1690,40 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.1757575757575758</v>
+        <v>-0.03700591300591301</v>
       </c>
       <c r="D29">
-        <v>-0.09090909090909088</v>
+        <v>-0.05074231474231474</v>
       </c>
       <c r="E29">
-        <v>-0.0303030303030303</v>
+        <v>-0.003327171327171328</v>
       </c>
       <c r="G29">
-        <v>0.01818181818181818</v>
+        <v>-0.04297371097371098</v>
       </c>
       <c r="H29">
-        <v>0.01818181818181818</v>
+        <v>-0.00921020121020121</v>
       </c>
       <c r="I29">
-        <v>0.0303030303030303</v>
+        <v>-0.00714010314010314</v>
       </c>
       <c r="J29">
-        <v>-0.04242424242424241</v>
+        <v>-0.01234927246041592</v>
       </c>
       <c r="K29">
-        <v>-0.3939393939393939</v>
+        <v>-0.01222222822222822</v>
       </c>
       <c r="L29">
-        <v>-0.1636363636363636</v>
+        <v>-0.006868626868626869</v>
       </c>
       <c r="M29">
-        <v>0.04242424242424241</v>
+        <v>0.0391011751011751</v>
       </c>
       <c r="O29">
-        <v>0.2484848484848484</v>
+        <v>0.02163579363579364</v>
       </c>
       <c r="P29">
-        <v>-0.6848484848484848</v>
+        <v>-0.02887458487458488</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,40 +1732,40 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>-0.1878787878787879</v>
+        <v>0.1857156177156177</v>
       </c>
       <c r="D30">
-        <v>-0.5030303030303029</v>
+        <v>0.01493879093879094</v>
       </c>
       <c r="E30">
-        <v>0.8060606060606059</v>
+        <v>0.6588048588048588</v>
       </c>
       <c r="G30">
-        <v>0.8545454545454544</v>
+        <v>0.8432151872151873</v>
       </c>
       <c r="H30">
-        <v>-0.2727272727272727</v>
+        <v>0.07102113502113502</v>
       </c>
       <c r="I30">
-        <v>-0.3575757575757575</v>
+        <v>0.02638017838017838</v>
       </c>
       <c r="J30">
-        <v>-0.4303030303030302</v>
+        <v>-0.2788945794046306</v>
       </c>
       <c r="K30">
-        <v>-0.4424242424242424</v>
+        <v>-0.09485177885177885</v>
       </c>
       <c r="L30">
-        <v>-0.3212121212121212</v>
+        <v>0.05776344976344977</v>
       </c>
       <c r="M30">
-        <v>-0.9878787878787878</v>
+        <v>-0.9811779571779573</v>
       </c>
       <c r="O30">
-        <v>-0.7818181818181817</v>
+        <v>-0.4441121521121522</v>
       </c>
       <c r="P30">
-        <v>-0.1757575757575758</v>
+        <v>-0.06342199542199542</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-lipidcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,295 +620,303 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.3018999618999619</v>
+        <v>-0.03038951438951439</v>
       </c>
       <c r="D4">
-        <v>0.9886549366549366</v>
+        <v>-0.04099019299019299</v>
       </c>
       <c r="E4">
-        <v>-0.702968082968083</v>
+        <v>-0.008691968691968692</v>
       </c>
       <c r="G4">
-        <v>-0.08710915510915512</v>
+        <v>-0.0847074367074367</v>
       </c>
       <c r="H4">
-        <v>0.1832505152505153</v>
+        <v>0.0361015081015081</v>
       </c>
       <c r="I4">
-        <v>0.02838746838746839</v>
+        <v>0.02172424572424573</v>
       </c>
       <c r="J4">
-        <v>0.55311241809043</v>
+        <v>0.04523760950903517</v>
       </c>
       <c r="K4">
-        <v>-0.0007806967806967808</v>
+        <v>-0.03674199674199675</v>
       </c>
       <c r="L4">
-        <v>-0.02468847668847669</v>
+        <v>-0.3317260397260398</v>
       </c>
       <c r="M4">
-        <v>-0.005367485367485368</v>
+        <v>0.02513988113988114</v>
       </c>
       <c r="O4">
-        <v>0.1452641412641413</v>
+        <v>-0.0542000582000582</v>
       </c>
       <c r="P4">
-        <v>-0.2360899400899401</v>
+        <v>0.02642557442557443</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.01788660588660589</v>
+        <v>0.07178577578577579</v>
       </c>
       <c r="D5">
-        <v>0.06987904587904588</v>
+        <v>0.1104073824073824</v>
       </c>
       <c r="E5">
-        <v>-0.05282021282021282</v>
+        <v>-0.00307917907917908</v>
       </c>
       <c r="G5">
-        <v>-0.00505939705939706</v>
+        <v>0.1367806367806368</v>
       </c>
       <c r="H5">
-        <v>0.05604408804408804</v>
+        <v>0.0454968694968695</v>
       </c>
       <c r="I5">
-        <v>-0.00532930132930133</v>
+        <v>0.02876791676791677</v>
       </c>
       <c r="J5">
-        <v>0.1453900106985208</v>
+        <v>0.00805652610486526</v>
       </c>
       <c r="K5">
-        <v>-0.01201096801096801</v>
+        <v>0.1276147276147276</v>
       </c>
       <c r="L5">
-        <v>-0.02967384567384567</v>
+        <v>0.8796744396744396</v>
       </c>
       <c r="M5">
-        <v>-0.008722796722796723</v>
+        <v>0.0002833322833322834</v>
       </c>
       <c r="O5">
-        <v>-0.02223855423855424</v>
+        <v>0.1545144465144465</v>
       </c>
       <c r="P5">
-        <v>-0.03104961104961105</v>
+        <v>0.0267015147015147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.0298019938019938</v>
+        <v>0.2240197280197281</v>
       </c>
       <c r="D6">
-        <v>-0.009706641706641707</v>
+        <v>-0.004406212406212407</v>
       </c>
       <c r="E6">
-        <v>-0.01849279849279849</v>
+        <v>-0.01278794478794479</v>
       </c>
       <c r="G6">
-        <v>-0.05437337437337438</v>
+        <v>-0.4488629088629089</v>
       </c>
       <c r="H6">
-        <v>0.03333771333771334</v>
+        <v>0.952991332991333</v>
       </c>
       <c r="I6">
-        <v>0.02813134013134014</v>
+        <v>0.9742967062967064</v>
       </c>
       <c r="J6">
-        <v>0.04023088059295852</v>
+        <v>-0.1829043160017419</v>
       </c>
       <c r="K6">
-        <v>-0.07557699957699958</v>
+        <v>0.04874614874614875</v>
       </c>
       <c r="L6">
-        <v>-0.3001771681771682</v>
+        <v>0.03581918381918382</v>
       </c>
       <c r="M6">
-        <v>-0.01543304743304743</v>
+        <v>-0.006441282441282442</v>
       </c>
       <c r="O6">
-        <v>-0.05523471123471124</v>
+        <v>-0.09262786462786463</v>
       </c>
       <c r="P6">
-        <v>0.05942858342858343</v>
+        <v>0.1693595773595774</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0.0466939546939547</v>
+        <v>0.698972906972907</v>
       </c>
       <c r="D7">
-        <v>0.1001711321711322</v>
+        <v>0.02518903318903319</v>
       </c>
       <c r="E7">
-        <v>0.03938483138483138</v>
+        <v>-0.08252793452793453</v>
       </c>
       <c r="G7">
-        <v>0.2180585300585301</v>
+        <v>-0.08674567474567475</v>
       </c>
       <c r="H7">
-        <v>-0.05156469956469957</v>
+        <v>0.01371428571428572</v>
       </c>
       <c r="I7">
-        <v>-0.05220785220785221</v>
+        <v>0.01506395106395106</v>
       </c>
       <c r="J7">
-        <v>-0.008165066238551835</v>
+        <v>0.04218238243547673</v>
       </c>
       <c r="K7">
-        <v>0.1566720726720727</v>
+        <v>-0.3900786420786421</v>
       </c>
       <c r="L7">
-        <v>0.8892954252954254</v>
+        <v>-0.01347805347805348</v>
       </c>
       <c r="M7">
-        <v>-0.04507570507570508</v>
+        <v>0.08039519639519641</v>
       </c>
       <c r="O7">
-        <v>0.1963978003978004</v>
+        <v>0.0152008232008232</v>
       </c>
       <c r="P7">
-        <v>0.01831347031347031</v>
+        <v>-0.03664624864624865</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1821125661125661</v>
+        <v>0.3867646947646948</v>
       </c>
       <c r="D8">
-        <v>0.01288616488616489</v>
+        <v>-0.02822914022914023</v>
       </c>
       <c r="E8">
-        <v>0.001831117831117831</v>
+        <v>0.02915651315651316</v>
       </c>
       <c r="G8">
-        <v>-0.4331118251118251</v>
+        <v>0.004220752220752222</v>
       </c>
       <c r="H8">
-        <v>0.9539010419010419</v>
+        <v>0.01382383382383383</v>
       </c>
       <c r="I8">
-        <v>0.977944025944026</v>
+        <v>0.02235392235392235</v>
       </c>
       <c r="J8">
-        <v>-0.2028070206322838</v>
+        <v>-0.006815574856468306</v>
       </c>
       <c r="K8">
-        <v>-0.04622272622272623</v>
+        <v>0.8904473664473664</v>
       </c>
       <c r="L8">
-        <v>-0.06702569502569503</v>
+        <v>0.009890373890373892</v>
       </c>
       <c r="M8">
-        <v>-0.02630984630984631</v>
+        <v>-0.01906978306978307</v>
       </c>
       <c r="O8">
-        <v>-0.1293125853125853</v>
+        <v>0.002057822057822058</v>
       </c>
       <c r="P8">
-        <v>0.3472763752763753</v>
+        <v>0.04441094041094042</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.001288345288345289</v>
+        <v>-0.02236329436329436</v>
       </c>
       <c r="D9">
-        <v>-0.01004103404103404</v>
+        <v>0.006141942141942143</v>
       </c>
       <c r="E9">
-        <v>-0.03673480873480874</v>
+        <v>0.01624530424530424</v>
       </c>
       <c r="G9">
-        <v>-0.1035626115626116</v>
+        <v>0.03318401718401719</v>
       </c>
       <c r="H9">
-        <v>0.02937732537732538</v>
+        <v>-0.02706113106113106</v>
       </c>
       <c r="I9">
-        <v>0.03047064647064647</v>
+        <v>-0.02097303297303297</v>
       </c>
       <c r="J9">
-        <v>-0.01629929844599213</v>
+        <v>0.008634188685993818</v>
       </c>
       <c r="K9">
-        <v>-0.03437571437571438</v>
+        <v>0.04033288033288034</v>
       </c>
       <c r="L9">
-        <v>-0.2873874593874594</v>
+        <v>0.04171943371943372</v>
       </c>
       <c r="M9">
-        <v>0.05052053052053053</v>
+        <v>-0.02593627393627394</v>
       </c>
       <c r="O9">
-        <v>-0.03613214413214413</v>
+        <v>0.0312900432900433</v>
       </c>
       <c r="P9">
-        <v>-0.02261833061833062</v>
+        <v>-0.0004007884007884009</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.0133007053007053</v>
+        <v>-0.04991366591366592</v>
       </c>
       <c r="D10">
-        <v>0.03085505485505485</v>
+        <v>-0.01817676617676618</v>
       </c>
       <c r="E10">
-        <v>-0.04408282408282409</v>
+        <v>0.00106974106974107</v>
       </c>
       <c r="G10">
-        <v>-0.002230742230742231</v>
+        <v>0.01284823284823285</v>
       </c>
       <c r="H10">
-        <v>-0.06354771954771955</v>
+        <v>-0.0546975186975187</v>
       </c>
       <c r="I10">
-        <v>-0.0893987573987574</v>
+        <v>-0.02926784926784927</v>
       </c>
       <c r="J10">
-        <v>0.07009328272412227</v>
+        <v>-0.006271344308972375</v>
       </c>
       <c r="K10">
-        <v>-0.01641581241581241</v>
+        <v>-0.06845931245931247</v>
       </c>
       <c r="L10">
-        <v>-0.1078256158256159</v>
+        <v>-0.005078321078321079</v>
       </c>
       <c r="M10">
-        <v>0.0293975933975934</v>
+        <v>-0.01571055971055971</v>
       </c>
       <c r="O10">
-        <v>0.02430991230991231</v>
+        <v>-0.02798588798588799</v>
       </c>
       <c r="P10">
-        <v>0.001805053805053805</v>
+        <v>-0.01894935094935095</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +925,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02544728544728545</v>
+        <v>0.1166044646044646</v>
       </c>
       <c r="D11">
-        <v>-0.02562226962226962</v>
+        <v>0.04000810000810001</v>
       </c>
       <c r="E11">
-        <v>0.01741778941778942</v>
+        <v>-0.02541532941532942</v>
       </c>
       <c r="G11">
-        <v>0.01024393024393024</v>
+        <v>0.01727593727593727</v>
       </c>
       <c r="H11">
-        <v>-0.01829206229206229</v>
+        <v>-0.04469124869124869</v>
       </c>
       <c r="I11">
-        <v>-0.01283276483276483</v>
+        <v>0.1744210504210504</v>
       </c>
       <c r="J11">
-        <v>-0.0318867801737612</v>
+        <v>0.04337810563837428</v>
       </c>
       <c r="K11">
-        <v>0.06209283809283809</v>
+        <v>-0.009447609447609449</v>
       </c>
       <c r="L11">
-        <v>0.07824181824181825</v>
+        <v>-0.0007805287805287807</v>
       </c>
       <c r="M11">
-        <v>0.01951491151491152</v>
+        <v>-0.009111789111789113</v>
       </c>
       <c r="O11">
-        <v>0.02641571041571042</v>
+        <v>0.01728061728061728</v>
       </c>
       <c r="P11">
-        <v>-0.000953052953052953</v>
+        <v>-0.02373443973443974</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,826 +967,832 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.007580983580983582</v>
+        <v>-0.1750645510645511</v>
       </c>
       <c r="D12">
-        <v>0.02452984852984853</v>
+        <v>0.02941333741333741</v>
       </c>
       <c r="E12">
-        <v>0.008824676824676825</v>
+        <v>-0.009846813846813848</v>
       </c>
       <c r="G12">
-        <v>0.06165674565674566</v>
+        <v>0.03097161097161098</v>
       </c>
       <c r="H12">
-        <v>-0.04607067407067408</v>
+        <v>-0.02947782547782548</v>
       </c>
       <c r="I12">
-        <v>-0.03755493755493756</v>
+        <v>-0.0290987330987331</v>
       </c>
       <c r="J12">
-        <v>-0.00735585742206014</v>
+        <v>0.03516815937916833</v>
       </c>
       <c r="K12">
-        <v>0.05103168303168303</v>
+        <v>-0.09002544602544603</v>
       </c>
       <c r="L12">
-        <v>0.08816633216633217</v>
+        <v>0.02861171261171261</v>
       </c>
       <c r="M12">
-        <v>-0.02986842586842587</v>
+        <v>0.01021778221778222</v>
       </c>
       <c r="O12">
-        <v>-0.0204997044997045</v>
+        <v>0.04585569385569386</v>
       </c>
       <c r="P12">
-        <v>-0.06208752208752209</v>
+        <v>0.004909684909684911</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.04008019608019608</v>
+        <v>0.04377073977073977</v>
       </c>
       <c r="D13">
-        <v>0.03878743478743479</v>
+        <v>0.004727116727116727</v>
       </c>
       <c r="E13">
-        <v>-0.01997329997329998</v>
+        <v>-0.001974217974217974</v>
       </c>
       <c r="G13">
-        <v>-0.005516621516621517</v>
+        <v>-0.01362650562650563</v>
       </c>
       <c r="H13">
-        <v>0.02722334722334722</v>
+        <v>0.003331647331647332</v>
       </c>
       <c r="I13">
-        <v>0.01813471813471814</v>
+        <v>0.0061001461001461</v>
       </c>
       <c r="J13">
-        <v>-0.02692308916539697</v>
+        <v>0.0226167587524593</v>
       </c>
       <c r="K13">
-        <v>0.00355979155979156</v>
+        <v>0.03461260661260662</v>
       </c>
       <c r="L13">
-        <v>0.022999786999787</v>
+        <v>-0.02194138594138594</v>
       </c>
       <c r="M13">
-        <v>0.008160524160524162</v>
+        <v>0.01906680706680707</v>
       </c>
       <c r="O13">
-        <v>-0.006037902037902039</v>
+        <v>-0.0398995718995719</v>
       </c>
       <c r="P13">
-        <v>-0.03548996348996349</v>
+        <v>-0.03028647028647029</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.7195130035130036</v>
+        <v>-0.0472930552930553</v>
       </c>
       <c r="D14">
-        <v>-0.05724993324993326</v>
+        <v>0.002431442431442431</v>
       </c>
       <c r="E14">
-        <v>0.03649088449088449</v>
+        <v>0.001539013539013539</v>
       </c>
       <c r="G14">
-        <v>-0.007837387837387837</v>
+        <v>-0.02662326262326262</v>
       </c>
       <c r="H14">
-        <v>-0.01075198675198675</v>
+        <v>0.03906236706236706</v>
       </c>
       <c r="I14">
-        <v>0.002840966840966841</v>
+        <v>0.03047980247980248</v>
       </c>
       <c r="J14">
-        <v>-0.02921264347555727</v>
+        <v>-0.02231284044671749</v>
       </c>
       <c r="K14">
-        <v>-0.3552524952524952</v>
+        <v>-0.01868871068871069</v>
       </c>
       <c r="L14">
-        <v>-0.04686878286878287</v>
+        <v>0.02613235413235413</v>
       </c>
       <c r="M14">
-        <v>0.01646514446514447</v>
+        <v>0.01376334176334176</v>
       </c>
       <c r="O14">
-        <v>-0.05552307152307152</v>
+        <v>-0.04750676350676351</v>
       </c>
       <c r="P14">
-        <v>0.01221217221217221</v>
+        <v>0.007124947124947124</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.0992028872028872</v>
+      </c>
+      <c r="D15">
+        <v>-0.02938292938292939</v>
+      </c>
+      <c r="E15">
+        <v>0.02888870888870889</v>
+      </c>
+      <c r="G15">
+        <v>0.006067530067530068</v>
+      </c>
+      <c r="H15">
+        <v>-0.01406079806079806</v>
+      </c>
+      <c r="I15">
+        <v>0.01214672414672415</v>
+      </c>
+      <c r="J15">
+        <v>-0.02907692925139083</v>
+      </c>
+      <c r="K15">
+        <v>-0.10799435999436</v>
+      </c>
+      <c r="L15">
+        <v>-0.01744330144330145</v>
+      </c>
+      <c r="M15">
+        <v>-0.01834735834735835</v>
+      </c>
+      <c r="O15">
+        <v>-0.004888336888336888</v>
+      </c>
+      <c r="P15">
+        <v>0.004505008505008506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.3954025914025914</v>
-      </c>
-      <c r="D15">
-        <v>-0.01487883887883888</v>
-      </c>
-      <c r="E15">
-        <v>0.01880448680448681</v>
-      </c>
-      <c r="G15">
-        <v>0.0416051816051816</v>
-      </c>
-      <c r="H15">
-        <v>-0.05464264264264265</v>
-      </c>
-      <c r="I15">
-        <v>-0.06332244332244331</v>
-      </c>
-      <c r="J15">
-        <v>-0.03149947978297511</v>
-      </c>
-      <c r="K15">
-        <v>0.8975855495855498</v>
-      </c>
-      <c r="L15">
-        <v>0.04135069735069735</v>
-      </c>
-      <c r="M15">
-        <v>-0.01837654237654238</v>
-      </c>
-      <c r="O15">
-        <v>0.04595960195960196</v>
-      </c>
-      <c r="P15">
-        <v>-0.07425158625158626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.09017452217452218</v>
+        <v>-0.000966948966948967</v>
       </c>
       <c r="D16">
-        <v>-0.01782292182292183</v>
+        <v>-0.003400647400647401</v>
       </c>
       <c r="E16">
-        <v>0.00120980520980521</v>
+        <v>-0.04475373275373276</v>
       </c>
       <c r="G16">
-        <v>-0.02974997374997376</v>
+        <v>-0.03627496827496828</v>
       </c>
       <c r="H16">
-        <v>-0.0074001914001914</v>
+        <v>-0.01462841062841063</v>
       </c>
       <c r="I16">
-        <v>-0.008551280551280552</v>
+        <v>-0.002931770931770932</v>
       </c>
       <c r="J16">
-        <v>0.01826062842497408</v>
+        <v>0.03030544248727514</v>
       </c>
       <c r="K16">
-        <v>0.0106006786006786</v>
+        <v>0.005256341256341257</v>
       </c>
       <c r="L16">
-        <v>-0.01925170325170325</v>
+        <v>0.001925545925545926</v>
       </c>
       <c r="M16">
-        <v>0.01342083742083742</v>
+        <v>0.04537745737745737</v>
       </c>
       <c r="O16">
-        <v>0.002752586752586753</v>
+        <v>0.05823902223902224</v>
       </c>
       <c r="P16">
-        <v>0.01766329766329766</v>
+        <v>-0.04057182457182457</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>-0.0331019371019371</v>
+      </c>
+      <c r="D17">
+        <v>0.04260573060573061</v>
+      </c>
+      <c r="E17">
+        <v>0.0009011769011769012</v>
+      </c>
+      <c r="G17">
+        <v>0.04839282039282039</v>
+      </c>
+      <c r="H17">
+        <v>0.2383104943104943</v>
+      </c>
+      <c r="I17">
+        <v>-0.007610803610803612</v>
+      </c>
+      <c r="J17">
+        <v>-0.002211068224334634</v>
+      </c>
+      <c r="K17">
+        <v>-0.01205952005952006</v>
+      </c>
+      <c r="L17">
+        <v>0.04891641691641692</v>
+      </c>
+      <c r="M17">
+        <v>-0.04213161013161013</v>
+      </c>
+      <c r="O17">
+        <v>-0.01897252297252297</v>
+      </c>
+      <c r="P17">
+        <v>0.107003411003411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>-0.03568183168183169</v>
-      </c>
-      <c r="D17">
-        <v>0.007808923808923809</v>
-      </c>
-      <c r="E17">
-        <v>0.01499055899055899</v>
-      </c>
-      <c r="G17">
-        <v>0.02830458430458431</v>
-      </c>
-      <c r="H17">
-        <v>0.01474737874737875</v>
-      </c>
-      <c r="I17">
-        <v>0.001472761472761473</v>
-      </c>
-      <c r="J17">
-        <v>0.002619524643100365</v>
-      </c>
-      <c r="K17">
-        <v>-0.04634579834579834</v>
-      </c>
-      <c r="L17">
-        <v>0.01076315876315876</v>
-      </c>
-      <c r="M17">
-        <v>-0.03930501930501931</v>
-      </c>
-      <c r="O17">
-        <v>-0.003432471432471433</v>
-      </c>
-      <c r="P17">
-        <v>0.007367959367959368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.05537267537267537</v>
+        <v>0.04718674718674719</v>
       </c>
       <c r="D18">
-        <v>0.05461727461727462</v>
+        <v>0.003983967983967984</v>
       </c>
       <c r="E18">
-        <v>-0.04361058761058761</v>
+        <v>0.108995736995737</v>
       </c>
       <c r="G18">
-        <v>0.0211952731952732</v>
+        <v>0.1026170466170466</v>
       </c>
       <c r="H18">
-        <v>-0.01328584928584929</v>
+        <v>0.02574715374715375</v>
       </c>
       <c r="I18">
-        <v>0.1891953571953572</v>
+        <v>0.01905475905475906</v>
       </c>
       <c r="J18">
-        <v>0.02231582251666492</v>
+        <v>-0.007812187859060986</v>
       </c>
       <c r="K18">
-        <v>-0.01843197043197043</v>
+        <v>-0.0104006264006264</v>
       </c>
       <c r="L18">
-        <v>0.03407169407169407</v>
+        <v>-0.03881502281502282</v>
       </c>
       <c r="M18">
-        <v>-0.01773241773241773</v>
+        <v>0.07021895821895822</v>
       </c>
       <c r="O18">
-        <v>0.01499519099519099</v>
+        <v>0.001039153039153039</v>
       </c>
       <c r="P18">
-        <v>-0.02546200946200947</v>
+        <v>-0.02217747417747418</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.01118588318588319</v>
+      </c>
+      <c r="D19">
+        <v>-0.04212879012879014</v>
+      </c>
+      <c r="E19">
+        <v>0.06950760950760951</v>
+      </c>
+      <c r="G19">
+        <v>0.0474966834966835</v>
+      </c>
+      <c r="H19">
+        <v>-0.006083298083298084</v>
+      </c>
+      <c r="I19">
+        <v>-0.02550434550434551</v>
+      </c>
+      <c r="J19">
+        <v>-0.02581165996652993</v>
+      </c>
+      <c r="K19">
+        <v>-0.008221508221508222</v>
+      </c>
+      <c r="L19">
+        <v>-0.006858498858498858</v>
+      </c>
+      <c r="M19">
+        <v>0.04733084333084334</v>
+      </c>
+      <c r="O19">
+        <v>-0.03471297471297471</v>
+      </c>
+      <c r="P19">
+        <v>0.04120259320259321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.1649282489282489</v>
-      </c>
-      <c r="D19">
-        <v>0.01436863436863437</v>
-      </c>
-      <c r="E19">
-        <v>-0.00128978528978529</v>
-      </c>
-      <c r="G19">
-        <v>0.0122971322971323</v>
-      </c>
-      <c r="H19">
-        <v>-0.006952626952626952</v>
-      </c>
-      <c r="I19">
-        <v>-0.01142872742872743</v>
-      </c>
-      <c r="J19">
-        <v>0.004074964111638789</v>
-      </c>
-      <c r="K19">
-        <v>-0.07595516795516796</v>
-      </c>
-      <c r="L19">
-        <v>0.04900729300729301</v>
-      </c>
-      <c r="M19">
-        <v>-0.01786008586008586</v>
-      </c>
-      <c r="O19">
-        <v>0.01965161565161565</v>
-      </c>
-      <c r="P19">
-        <v>0.01208643608643609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.04728113928113929</v>
+        <v>-0.02446593646593647</v>
       </c>
       <c r="D20">
-        <v>-0.004681768681768683</v>
+        <v>-0.03413583413583414</v>
       </c>
       <c r="E20">
-        <v>0.03582795582795584</v>
+        <v>0.1756920316920317</v>
       </c>
       <c r="G20">
-        <v>0.02588372588372588</v>
+        <v>0.07317021717021717</v>
       </c>
       <c r="H20">
-        <v>0.02684910284910285</v>
+        <v>-0.121993705993706</v>
       </c>
       <c r="I20">
-        <v>0.01041791841791842</v>
+        <v>-0.08208890208890209</v>
       </c>
       <c r="J20">
-        <v>-0.06143936599232029</v>
+        <v>0.004849654878752808</v>
       </c>
       <c r="K20">
-        <v>0.03766886566886567</v>
+        <v>0.06398429198429199</v>
       </c>
       <c r="L20">
-        <v>-0.03976845976845977</v>
+        <v>0.05267789267789268</v>
       </c>
       <c r="M20">
-        <v>-0.05097504297504298</v>
+        <v>0.1804300084300084</v>
       </c>
       <c r="O20">
-        <v>-0.03565483165483166</v>
+        <v>0.05507971907971908</v>
       </c>
       <c r="P20">
-        <v>-0.01012048612048612</v>
+        <v>-0.0296960696960697</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01071399471399472</v>
+        <v>-0.03262487662487663</v>
       </c>
       <c r="D21">
-        <v>0.01871820671820672</v>
+        <v>-0.05115861915861916</v>
       </c>
       <c r="E21">
-        <v>-0.01596030396030396</v>
+        <v>0.06402139602139603</v>
       </c>
       <c r="G21">
-        <v>0.007632907632907633</v>
+        <v>0.03801140601140601</v>
       </c>
       <c r="H21">
-        <v>0.002547194547194547</v>
+        <v>-0.02121586521586522</v>
       </c>
       <c r="I21">
-        <v>0.003907131907131907</v>
+        <v>-0.02391518391518392</v>
       </c>
       <c r="J21">
-        <v>-0.008110004182994221</v>
+        <v>-0.02029801441980251</v>
       </c>
       <c r="K21">
-        <v>-0.008810336810336812</v>
+        <v>-0.0006529086529086529</v>
       </c>
       <c r="L21">
-        <v>0.002763494763494764</v>
+        <v>-0.003010683010683011</v>
       </c>
       <c r="M21">
-        <v>-0.01654936054936055</v>
+        <v>0.002353586353586354</v>
       </c>
       <c r="O21">
-        <v>-0.03526161526161527</v>
+        <v>-0.02995044595044595</v>
       </c>
       <c r="P21">
-        <v>-0.009856905856905856</v>
+        <v>-0.01770953370953371</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.1207596847596848</v>
+        <v>0.03457677457677458</v>
       </c>
       <c r="D22">
-        <v>-0.01336290136290136</v>
+        <v>-0.004697680697680698</v>
       </c>
       <c r="E22">
-        <v>-0.01232283632283632</v>
+        <v>0.0007173727173727174</v>
       </c>
       <c r="G22">
-        <v>-0.03825258225258225</v>
+        <v>-0.02568172968172968</v>
       </c>
       <c r="H22">
-        <v>0.02457717657717658</v>
+        <v>0.04680975480975481</v>
       </c>
       <c r="I22">
-        <v>0.02280578280578281</v>
+        <v>0.04107894507894508</v>
       </c>
       <c r="J22">
-        <v>-0.01878177095080689</v>
+        <v>-0.01231222838610176</v>
       </c>
       <c r="K22">
-        <v>-0.05887334287334287</v>
+        <v>0.01433022233022233</v>
       </c>
       <c r="L22">
-        <v>-0.01019089019089019</v>
+        <v>-0.006904242904242905</v>
       </c>
       <c r="M22">
-        <v>0.0238954318954319</v>
+        <v>-0.001568209568209568</v>
       </c>
       <c r="O22">
-        <v>0.06501167301167302</v>
+        <v>0.01558845958845959</v>
       </c>
       <c r="P22">
-        <v>0.01152375552375553</v>
+        <v>-0.009955617955617956</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>0.00391964791964792</v>
+        <v>0.09712441312441314</v>
       </c>
       <c r="D23">
-        <v>-0.02804233604233605</v>
+        <v>-0.004490176490176491</v>
       </c>
       <c r="E23">
-        <v>0.03125935925935926</v>
+        <v>0.6462687942687942</v>
       </c>
       <c r="G23">
-        <v>0.005902373902373903</v>
+        <v>0.848978936978937</v>
       </c>
       <c r="H23">
-        <v>0.01007680607680608</v>
+        <v>0.03980456780456781</v>
       </c>
       <c r="I23">
-        <v>0.02353199953199953</v>
+        <v>-0.002294846294846295</v>
       </c>
       <c r="J23">
-        <v>-0.02776420601408387</v>
+        <v>-0.2499899034898429</v>
       </c>
       <c r="K23">
-        <v>-0.0003851163851163851</v>
+        <v>-0.06447106047106047</v>
       </c>
       <c r="L23">
-        <v>-0.0841924681924682</v>
+        <v>0.02113487713487714</v>
       </c>
       <c r="M23">
-        <v>-0.01857407457407458</v>
+        <v>-0.9797643797643798</v>
       </c>
       <c r="O23">
-        <v>-0.02590916590916591</v>
+        <v>-0.3936458496458496</v>
       </c>
       <c r="P23">
-        <v>-0.06522275322275323</v>
+        <v>-0.1091897051897052</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.06948940548940549</v>
+        <v>-0.019997623997624</v>
       </c>
       <c r="D24">
-        <v>0.02803790803790804</v>
+        <v>-0.04562511362511363</v>
       </c>
       <c r="E24">
-        <v>-0.009433161433161434</v>
+        <v>-0.01263586863586864</v>
       </c>
       <c r="G24">
-        <v>0.02702982302982303</v>
+        <v>-0.06881501681501681</v>
       </c>
       <c r="H24">
-        <v>0.1859242259242259</v>
+        <v>-0.001686925686925687</v>
       </c>
       <c r="I24">
-        <v>-0.05177709977709978</v>
+        <v>-0.009307569307569308</v>
       </c>
       <c r="J24">
-        <v>0.07054509518000104</v>
+        <v>-0.00336098138114727</v>
       </c>
       <c r="K24">
-        <v>0.009534837534837536</v>
+        <v>-0.08306039906039907</v>
       </c>
       <c r="L24">
-        <v>0.03532951132951133</v>
+        <v>-0.2894709134709135</v>
       </c>
       <c r="M24">
-        <v>-0.01181222381222381</v>
+        <v>0.05347711747711748</v>
       </c>
       <c r="O24">
-        <v>0.03990535590535591</v>
+        <v>-0.04908393708393709</v>
       </c>
       <c r="P24">
-        <v>0.1859460419460419</v>
+        <v>0.004005028005028005</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.02527860127860128</v>
+        <v>0.03431204231204232</v>
       </c>
       <c r="D25">
-        <v>-0.02447020847020847</v>
+        <v>0.04372829572829573</v>
       </c>
       <c r="E25">
-        <v>0.1232920232920233</v>
+        <v>-0.03515704715704716</v>
       </c>
       <c r="G25">
-        <v>0.1197412557412558</v>
+        <v>0.008755904755904757</v>
       </c>
       <c r="H25">
-        <v>-0.02152114552114552</v>
+        <v>-0.02946760146760147</v>
       </c>
       <c r="I25">
-        <v>-0.01576635976635977</v>
+        <v>-0.03137812337812338</v>
       </c>
       <c r="J25">
-        <v>-0.002917694943954198</v>
+        <v>0.04609002436656452</v>
       </c>
       <c r="K25">
-        <v>0.01488291888291888</v>
+        <v>-0.03847109047109047</v>
       </c>
       <c r="L25">
-        <v>0.03798051798051798</v>
+        <v>-0.09285916485916486</v>
       </c>
       <c r="M25">
-        <v>0.0733867453867454</v>
+        <v>-0.0236043116043116</v>
       </c>
       <c r="O25">
-        <v>0.06798148398148399</v>
+        <v>-0.01054055854055854</v>
       </c>
       <c r="P25">
-        <v>-0.04194317394317395</v>
+        <v>-0.01122505122505123</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.08114754914754917</v>
+        <v>-0.02307832707832708</v>
       </c>
       <c r="D26">
-        <v>0.03658962058962059</v>
+        <v>0.01095365895365896</v>
       </c>
       <c r="E26">
-        <v>0.02482821682821683</v>
+        <v>0.01957564357564358</v>
       </c>
       <c r="G26">
-        <v>0.04636429036429036</v>
+        <v>0.05544346344346344</v>
       </c>
       <c r="H26">
-        <v>0.01784125784125784</v>
+        <v>-0.02923003723003724</v>
       </c>
       <c r="I26">
-        <v>0.001316821316821317</v>
+        <v>-0.03308152508152509</v>
       </c>
       <c r="J26">
-        <v>0.004502512543035156</v>
+        <v>0.01641335251183262</v>
       </c>
       <c r="K26">
-        <v>-0.05236759636759637</v>
+        <v>0.02425921225921226</v>
       </c>
       <c r="L26">
-        <v>-0.02425658425658426</v>
+        <v>0.05743830943830944</v>
       </c>
       <c r="M26">
-        <v>0.05910806310806312</v>
+        <v>-0.0186980106980107</v>
       </c>
       <c r="O26">
-        <v>-0.01395620595620596</v>
+        <v>-0.06112528912528913</v>
       </c>
       <c r="P26">
-        <v>0.01156037956037956</v>
+        <v>-0.01774771774771775</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.05763624963624964</v>
+        <v>0.009781737781737783</v>
       </c>
       <c r="D27">
-        <v>0.01499439899439899</v>
+        <v>0.02890970890970892</v>
       </c>
       <c r="E27">
-        <v>0.1648178128178128</v>
+        <v>-0.03830411030411031</v>
       </c>
       <c r="G27">
-        <v>0.09100629100629101</v>
+        <v>-0.03961238761238762</v>
       </c>
       <c r="H27">
-        <v>-0.0004411204411204412</v>
+        <v>0.02860452460452461</v>
       </c>
       <c r="I27">
-        <v>-0.01675240075240075</v>
+        <v>0.03942546342546343</v>
       </c>
       <c r="J27">
-        <v>-0.011096867196739</v>
+        <v>0.01554873964203208</v>
       </c>
       <c r="K27">
-        <v>0.0009205929205929208</v>
+        <v>-0.01124372324372325</v>
       </c>
       <c r="L27">
-        <v>-0.02572725772725773</v>
+        <v>-0.02745029145029145</v>
       </c>
       <c r="M27">
-        <v>0.09532783132783133</v>
+        <v>0.00870908070908071</v>
       </c>
       <c r="O27">
-        <v>-0.01518297918297918</v>
+        <v>-0.008796788796788796</v>
       </c>
       <c r="P27">
-        <v>0.02278787878787879</v>
+        <v>0.02628600228600229</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.01094363894363895</v>
+        <v>0.3553385113385114</v>
       </c>
       <c r="D28">
-        <v>0.01069089469089469</v>
+        <v>0.989713805713806</v>
       </c>
       <c r="E28">
-        <v>0.03947876747876748</v>
+        <v>-0.7228187188187188</v>
       </c>
       <c r="G28">
-        <v>0.04952073752073752</v>
+        <v>-0.08863638463638465</v>
       </c>
       <c r="H28">
-        <v>-0.03537689937689938</v>
+        <v>0.1633089193089193</v>
       </c>
       <c r="I28">
-        <v>-0.02799691599691599</v>
+        <v>0.003501615501615502</v>
       </c>
       <c r="J28">
-        <v>0.02581752804988581</v>
+        <v>0.7734086380490899</v>
       </c>
       <c r="K28">
-        <v>-0.007289311289311289</v>
+        <v>-0.04918022518022518</v>
       </c>
       <c r="L28">
-        <v>0.03401128601128602</v>
+        <v>0.008941856941856941</v>
       </c>
       <c r="M28">
-        <v>0.01997511197511198</v>
+        <v>-0.002407490407490408</v>
       </c>
       <c r="O28">
-        <v>-0.002181182181182181</v>
+        <v>0.1743278463278463</v>
       </c>
       <c r="P28">
-        <v>-0.01644810444810445</v>
+        <v>-0.03635032835032836</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.03700591300591301</v>
+        <v>-0.0421998421998422</v>
       </c>
       <c r="D29">
-        <v>-0.05074231474231474</v>
+        <v>0.05073953073953074</v>
       </c>
       <c r="E29">
-        <v>-0.003327171327171328</v>
+        <v>-0.06215987015987017</v>
       </c>
       <c r="G29">
-        <v>-0.04297371097371098</v>
+        <v>-0.01867678267678268</v>
       </c>
       <c r="H29">
-        <v>-0.00921020121020121</v>
+        <v>-0.009046233046233048</v>
       </c>
       <c r="I29">
-        <v>-0.00714010314010314</v>
+        <v>-0.0318975798975799</v>
       </c>
       <c r="J29">
-        <v>-0.01234927246041592</v>
+        <v>0.1889482000818893</v>
       </c>
       <c r="K29">
-        <v>-0.01222222822222822</v>
+        <v>0.006063870063870064</v>
       </c>
       <c r="L29">
-        <v>-0.006868626868626869</v>
+        <v>-0.02283430683430684</v>
       </c>
       <c r="M29">
-        <v>0.0391011751011751</v>
+        <v>0.0250996810996811</v>
       </c>
       <c r="O29">
-        <v>0.02163579363579364</v>
+        <v>-0.02935574935574936</v>
       </c>
       <c r="P29">
-        <v>-0.02887458487458488</v>
+        <v>0.01795967395967396</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.1857156177156177</v>
+        <v>0.04043933243933244</v>
       </c>
       <c r="D30">
-        <v>0.01493879093879094</v>
+        <v>0.007997539997539998</v>
       </c>
       <c r="E30">
-        <v>0.6588048588048588</v>
+        <v>0.01463564663564664</v>
       </c>
       <c r="G30">
-        <v>0.8432151872151873</v>
+        <v>0.01770475770475771</v>
       </c>
       <c r="H30">
-        <v>0.07102113502113502</v>
+        <v>0.02178587778587779</v>
       </c>
       <c r="I30">
-        <v>0.02638017838017838</v>
+        <v>0.01301083301083301</v>
       </c>
       <c r="J30">
-        <v>-0.2788945794046306</v>
+        <v>-0.02871619088848804</v>
       </c>
       <c r="K30">
-        <v>-0.09485177885177885</v>
+        <v>-0.008812544812544813</v>
       </c>
       <c r="L30">
-        <v>0.05776344976344977</v>
+        <v>-0.001137301137301138</v>
       </c>
       <c r="M30">
-        <v>-0.9811779571779573</v>
+        <v>-0.0113960393960394</v>
       </c>
       <c r="O30">
-        <v>-0.4441121521121522</v>
+        <v>-0.06944649344649345</v>
       </c>
       <c r="P30">
-        <v>-0.06342199542199542</v>
+        <v>0.04196528996528996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
